--- a/report/Tables.xlsx
+++ b/report/Tables.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t xml:space="preserve">Color Spotting</t>
   </si>
@@ -202,6 +202,72 @@
     <t>A</t>
   </si>
   <si>
+    <t>DecisionTree</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
     <t xml:space="preserve">Frequency Spotting S</t>
   </si>
   <si>
@@ -328,7 +394,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -385,17 +451,15 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf fontId="5" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="5" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="6" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6035,7 +6099,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A59" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A92" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -6292,7 +6356,7 @@
     </row>
     <row r="20"/>
     <row r="21">
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D21" s="1"/>
@@ -6305,19 +6369,19 @@
       <c r="C22" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="19" t="s">
+      <c r="F22" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G22" s="19" t="s">
+      <c r="G22" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H22" s="19" t="s">
+      <c r="H22" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -6325,320 +6389,320 @@
       <c r="C23" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="20">
+      <c r="E23" s="6">
         <v>0.94999999999999996</v>
       </c>
-      <c r="F23" s="20">
+      <c r="F23" s="6">
         <v>0.94999999999999996</v>
       </c>
-      <c r="G23" s="20">
+      <c r="G23" s="6">
         <v>0.94999999999999996</v>
       </c>
-      <c r="H23" s="20">
+      <c r="H23" s="6">
         <v>0.96999999999999997</v>
       </c>
     </row>
     <row r="24">
       <c r="C24" s="5"/>
-      <c r="D24" s="20" t="s">
+      <c r="D24" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E24" s="20">
-        <v>1</v>
-      </c>
-      <c r="F24" s="20">
+      <c r="E24" s="6">
+        <v>1</v>
+      </c>
+      <c r="F24" s="6">
         <v>0.94999999999999996</v>
       </c>
-      <c r="G24" s="20">
+      <c r="G24" s="6">
         <v>0.96999999999999997</v>
       </c>
-      <c r="H24" s="20"/>
+      <c r="H24" s="6"/>
     </row>
     <row r="25">
       <c r="C25" s="5"/>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="20">
+      <c r="E25" s="6">
         <v>0.94999999999999996</v>
       </c>
-      <c r="F25" s="20">
-        <v>1</v>
-      </c>
-      <c r="G25" s="20">
+      <c r="F25" s="6">
+        <v>1</v>
+      </c>
+      <c r="G25" s="6">
         <v>0.97999999999999998</v>
       </c>
-      <c r="H25" s="20"/>
+      <c r="H25" s="6"/>
     </row>
     <row r="26">
       <c r="C26" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="20">
+      <c r="E26" s="6">
         <v>0.75</v>
       </c>
-      <c r="F26" s="20">
+      <c r="F26" s="6">
         <v>0.90000000000000002</v>
       </c>
-      <c r="G26" s="20">
+      <c r="G26" s="6">
         <v>0.81999999999999995</v>
       </c>
-      <c r="H26" s="20">
+      <c r="H26" s="6">
         <v>0.87</v>
       </c>
     </row>
     <row r="27">
       <c r="C27" s="5"/>
-      <c r="D27" s="20" t="s">
+      <c r="D27" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E27" s="20">
+      <c r="E27" s="6">
         <v>0.93999999999999995</v>
       </c>
-      <c r="F27" s="20">
+      <c r="F27" s="6">
         <v>0.80000000000000004</v>
       </c>
-      <c r="G27" s="20">
+      <c r="G27" s="6">
         <v>0.85999999999999999</v>
       </c>
-      <c r="H27" s="20"/>
+      <c r="H27" s="6"/>
     </row>
     <row r="28">
       <c r="C28" s="5"/>
-      <c r="D28" s="20" t="s">
+      <c r="D28" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E28" s="20">
+      <c r="E28" s="6">
         <v>0.94999999999999996</v>
       </c>
-      <c r="F28" s="20">
+      <c r="F28" s="6">
         <v>0.90000000000000002</v>
       </c>
-      <c r="G28" s="20">
+      <c r="G28" s="6">
         <v>0.92000000000000004</v>
       </c>
-      <c r="H28" s="20"/>
+      <c r="H28" s="6"/>
     </row>
     <row r="29">
       <c r="C29" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="20" t="s">
+      <c r="D29" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="20">
+      <c r="E29" s="6">
         <v>0.94999999999999996</v>
       </c>
-      <c r="F29" s="20">
-        <v>1</v>
-      </c>
-      <c r="G29" s="20">
+      <c r="F29" s="6">
+        <v>1</v>
+      </c>
+      <c r="G29" s="6">
         <v>0.97999999999999998</v>
       </c>
-      <c r="H29" s="20">
+      <c r="H29" s="6">
         <v>0.97999999999999998</v>
       </c>
     </row>
     <row r="30">
       <c r="C30" s="5"/>
-      <c r="D30" s="20" t="s">
+      <c r="D30" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E30" s="20">
-        <v>1</v>
-      </c>
-      <c r="F30" s="20">
+      <c r="E30" s="6">
+        <v>1</v>
+      </c>
+      <c r="F30" s="6">
         <v>0.94999999999999996</v>
       </c>
-      <c r="G30" s="20">
+      <c r="G30" s="6">
         <v>0.96999999999999997</v>
       </c>
-      <c r="H30" s="20"/>
+      <c r="H30" s="6"/>
     </row>
     <row r="31">
       <c r="C31" s="5"/>
-      <c r="D31" s="20" t="s">
+      <c r="D31" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E31" s="20">
-        <v>1</v>
-      </c>
-      <c r="F31" s="20">
-        <v>1</v>
-      </c>
-      <c r="G31" s="20">
-        <v>1</v>
-      </c>
-      <c r="H31" s="20"/>
+      <c r="E31" s="6">
+        <v>1</v>
+      </c>
+      <c r="F31" s="6">
+        <v>1</v>
+      </c>
+      <c r="G31" s="6">
+        <v>1</v>
+      </c>
+      <c r="H31" s="6"/>
     </row>
     <row r="32">
       <c r="C32" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="20" t="s">
+      <c r="D32" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E32" s="20">
+      <c r="E32" s="6">
         <v>0.85999999999999999</v>
       </c>
-      <c r="F32" s="20">
+      <c r="F32" s="6">
         <v>0.94999999999999996</v>
       </c>
-      <c r="G32" s="20">
+      <c r="G32" s="6">
         <v>0.90000000000000002</v>
       </c>
-      <c r="H32" s="20">
+      <c r="H32" s="6">
         <v>0.93000000000000005</v>
       </c>
     </row>
     <row r="33">
       <c r="C33" s="5"/>
-      <c r="D33" s="20" t="s">
+      <c r="D33" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E33" s="20">
-        <v>1</v>
-      </c>
-      <c r="F33" s="20">
+      <c r="E33" s="6">
+        <v>1</v>
+      </c>
+      <c r="F33" s="6">
         <v>0.84999999999999998</v>
       </c>
-      <c r="G33" s="20">
+      <c r="G33" s="6">
         <v>0.92000000000000004</v>
       </c>
-      <c r="H33" s="20"/>
+      <c r="H33" s="6"/>
     </row>
     <row r="34">
       <c r="C34" s="5"/>
-      <c r="D34" s="20" t="s">
+      <c r="D34" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E34" s="20">
+      <c r="E34" s="6">
         <v>0.94999999999999996</v>
       </c>
-      <c r="F34" s="20">
-        <v>1</v>
-      </c>
-      <c r="G34" s="20">
+      <c r="F34" s="6">
+        <v>1</v>
+      </c>
+      <c r="G34" s="6">
         <v>0.97999999999999998</v>
       </c>
-      <c r="H34" s="20"/>
+      <c r="H34" s="6"/>
     </row>
     <row r="35">
       <c r="C35" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D35" s="20" t="s">
+      <c r="D35" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E35" s="20">
-        <v>1</v>
-      </c>
-      <c r="F35" s="20">
+      <c r="E35" s="6">
+        <v>1</v>
+      </c>
+      <c r="F35" s="6">
         <v>0.40000000000000002</v>
       </c>
-      <c r="G35" s="20">
+      <c r="G35" s="6">
         <v>0.56999999999999995</v>
       </c>
-      <c r="H35" s="20">
+      <c r="H35" s="6">
         <v>0.78000000000000003</v>
       </c>
     </row>
     <row r="36">
       <c r="C36" s="5"/>
-      <c r="D36" s="20" t="s">
+      <c r="D36" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E36" s="20">
+      <c r="E36" s="6">
         <v>0.70999999999999996</v>
       </c>
-      <c r="F36" s="20">
-        <v>1</v>
-      </c>
-      <c r="G36" s="20">
+      <c r="F36" s="6">
+        <v>1</v>
+      </c>
+      <c r="G36" s="6">
         <v>0.82999999999999996</v>
       </c>
-      <c r="H36" s="20"/>
+      <c r="H36" s="6"/>
     </row>
     <row r="37">
       <c r="C37" s="5"/>
-      <c r="D37" s="20" t="s">
+      <c r="D37" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E37" s="20">
+      <c r="E37" s="6">
         <v>0.79000000000000004</v>
       </c>
-      <c r="F37" s="20">
+      <c r="F37" s="6">
         <v>0.94999999999999996</v>
       </c>
-      <c r="G37" s="20">
+      <c r="G37" s="6">
         <v>0.85999999999999999</v>
       </c>
-      <c r="H37" s="20"/>
+      <c r="H37" s="6"/>
     </row>
     <row r="38">
       <c r="C38" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="20" t="s">
+      <c r="D38" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E38" s="20">
+      <c r="E38" s="6">
         <v>0.90000000000000002</v>
       </c>
-      <c r="F38" s="20">
+      <c r="F38" s="6">
         <v>0.90000000000000002</v>
       </c>
-      <c r="G38" s="20">
+      <c r="G38" s="6">
         <v>0.90000000000000002</v>
       </c>
-      <c r="H38" s="20">
+      <c r="H38" s="6">
         <v>0.93000000000000005</v>
       </c>
     </row>
     <row r="39">
       <c r="C39" s="5"/>
-      <c r="D39" s="20" t="s">
+      <c r="D39" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E39" s="20">
-        <v>1</v>
-      </c>
-      <c r="F39" s="20">
+      <c r="E39" s="6">
+        <v>1</v>
+      </c>
+      <c r="F39" s="6">
         <v>0.90000000000000002</v>
       </c>
-      <c r="G39" s="20">
+      <c r="G39" s="6">
         <v>0.94999999999999996</v>
       </c>
-      <c r="H39" s="20"/>
+      <c r="H39" s="6"/>
     </row>
     <row r="40">
       <c r="C40" s="5"/>
-      <c r="D40" s="20" t="s">
+      <c r="D40" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E40" s="20">
+      <c r="E40" s="6">
         <v>0.91000000000000003</v>
       </c>
-      <c r="F40" s="20">
-        <v>1</v>
-      </c>
-      <c r="G40" s="20">
+      <c r="F40" s="6">
+        <v>1</v>
+      </c>
+      <c r="G40" s="6">
         <v>0.94999999999999996</v>
       </c>
-      <c r="H40" s="20"/>
+      <c r="H40" s="6"/>
     </row>
     <row r="41"/>
     <row r="42"/>
     <row r="43"/>
     <row r="44"/>
     <row r="45">
-      <c r="C45" s="21" t="s">
+      <c r="C45" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D45" s="2"/>
@@ -6651,19 +6715,19 @@
       <c r="C46" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D46" s="19" t="s">
+      <c r="D46" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E46" s="19" t="s">
+      <c r="E46" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F46" s="19" t="s">
+      <c r="F46" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G46" s="19" t="s">
+      <c r="G46" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H46" s="19" t="s">
+      <c r="H46" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -6671,412 +6735,412 @@
       <c r="C47" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="20" t="s">
+      <c r="D47" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E47" s="20">
+      <c r="E47" s="6">
         <v>0.84999999999999998</v>
       </c>
-      <c r="F47" s="20">
+      <c r="F47" s="6">
         <v>0.84999999999999998</v>
       </c>
-      <c r="G47" s="20">
+      <c r="G47" s="6">
         <v>0.84999999999999998</v>
       </c>
-      <c r="H47" s="20">
+      <c r="H47" s="6">
         <v>0.91000000000000003</v>
       </c>
     </row>
     <row r="48">
       <c r="C48" s="5"/>
-      <c r="D48" s="20" t="s">
+      <c r="D48" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E48" s="20">
+      <c r="E48" s="6">
         <v>0.90000000000000002</v>
       </c>
-      <c r="F48" s="20">
+      <c r="F48" s="6">
         <v>0.94999999999999996</v>
       </c>
-      <c r="G48" s="20">
+      <c r="G48" s="6">
         <v>0.93000000000000005</v>
       </c>
-      <c r="H48" s="20"/>
+      <c r="H48" s="6"/>
     </row>
     <row r="49">
       <c r="C49" s="5"/>
-      <c r="D49" s="20" t="s">
+      <c r="D49" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E49" s="20">
+      <c r="E49" s="6">
         <v>0.90000000000000002</v>
       </c>
-      <c r="F49" s="20">
+      <c r="F49" s="6">
         <v>0.90000000000000002</v>
       </c>
-      <c r="G49" s="20">
+      <c r="G49" s="6">
         <v>0.90000000000000002</v>
       </c>
-      <c r="H49" s="20"/>
+      <c r="H49" s="6"/>
     </row>
     <row r="50">
       <c r="C50" s="5"/>
-      <c r="D50" s="20" t="s">
+      <c r="D50" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E50" s="20">
-        <v>1</v>
-      </c>
-      <c r="F50" s="20">
+      <c r="E50" s="6">
+        <v>1</v>
+      </c>
+      <c r="F50" s="6">
         <v>0.94999999999999996</v>
       </c>
-      <c r="G50" s="20">
+      <c r="G50" s="6">
         <v>0.96999999999999997</v>
       </c>
-      <c r="H50" s="20"/>
+      <c r="H50" s="6"/>
     </row>
     <row r="51">
       <c r="C51" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D51" s="20" t="s">
+      <c r="D51" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E51" s="20">
+      <c r="E51" s="6">
         <v>0.70999999999999996</v>
       </c>
-      <c r="F51" s="20">
+      <c r="F51" s="6">
         <v>0.5</v>
       </c>
-      <c r="G51" s="20">
+      <c r="G51" s="6">
         <v>0.58999999999999997</v>
       </c>
-      <c r="H51" s="20">
+      <c r="H51" s="6">
         <v>0.68000000000000005</v>
       </c>
     </row>
     <row r="52" ht="14.25">
       <c r="C52" s="5"/>
-      <c r="D52" s="20" t="s">
+      <c r="D52" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E52" s="20">
+      <c r="E52" s="6">
         <v>0.56999999999999995</v>
       </c>
-      <c r="F52" s="20">
+      <c r="F52" s="6">
         <v>0.65000000000000002</v>
       </c>
-      <c r="G52" s="20">
+      <c r="G52" s="6">
         <v>0.59999999999999998</v>
       </c>
-      <c r="H52" s="20"/>
+      <c r="H52" s="6"/>
     </row>
     <row r="53" ht="14.25">
       <c r="C53" s="5"/>
-      <c r="D53" s="20" t="s">
+      <c r="D53" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E53" s="20">
+      <c r="E53" s="6">
         <v>0.57999999999999996</v>
       </c>
-      <c r="F53" s="20">
+      <c r="F53" s="6">
         <v>0.69999999999999996</v>
       </c>
-      <c r="G53" s="20">
+      <c r="G53" s="6">
         <v>0.64000000000000001</v>
       </c>
-      <c r="H53" s="20"/>
+      <c r="H53" s="6"/>
     </row>
     <row r="54" ht="14.25">
       <c r="C54" s="5"/>
-      <c r="D54" s="20" t="s">
+      <c r="D54" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E54" s="20">
+      <c r="E54" s="6">
         <v>0.89000000000000001</v>
       </c>
-      <c r="F54" s="20">
+      <c r="F54" s="6">
         <v>0.84999999999999998</v>
       </c>
-      <c r="G54" s="20">
+      <c r="G54" s="6">
         <v>0.87</v>
       </c>
-      <c r="H54" s="20"/>
+      <c r="H54" s="6"/>
     </row>
     <row r="55" ht="14.25">
       <c r="C55" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D55" s="20" t="s">
+      <c r="D55" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E55" s="20">
+      <c r="E55" s="6">
         <v>0.84999999999999998</v>
       </c>
-      <c r="F55" s="20">
+      <c r="F55" s="6">
         <v>0.84999999999999998</v>
       </c>
-      <c r="G55" s="20">
+      <c r="G55" s="6">
         <v>0.84999999999999998</v>
       </c>
-      <c r="H55" s="20">
+      <c r="H55" s="6">
         <v>0.90000000000000002</v>
       </c>
     </row>
     <row r="56" ht="14.25">
       <c r="C56" s="5"/>
-      <c r="D56" s="20" t="s">
+      <c r="D56" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E56" s="20">
+      <c r="E56" s="6">
         <v>0.90000000000000002</v>
       </c>
-      <c r="F56" s="20">
+      <c r="F56" s="6">
         <v>0.90000000000000002</v>
       </c>
-      <c r="G56" s="20">
+      <c r="G56" s="6">
         <v>0.90000000000000002</v>
       </c>
-      <c r="H56" s="20"/>
+      <c r="H56" s="6"/>
     </row>
     <row r="57" ht="14.25">
       <c r="C57" s="5"/>
-      <c r="D57" s="20" t="s">
+      <c r="D57" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E57" s="20">
+      <c r="E57" s="6">
         <v>0.85999999999999999</v>
       </c>
-      <c r="F57" s="20">
+      <c r="F57" s="6">
         <v>0.94999999999999996</v>
       </c>
-      <c r="G57" s="20">
+      <c r="G57" s="6">
         <v>0.90000000000000002</v>
       </c>
-      <c r="H57" s="20"/>
+      <c r="H57" s="6"/>
     </row>
     <row r="58" ht="14.25">
       <c r="C58" s="5"/>
-      <c r="D58" s="20" t="s">
+      <c r="D58" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E58" s="20">
-        <v>1</v>
-      </c>
-      <c r="F58" s="20">
+      <c r="E58" s="6">
+        <v>1</v>
+      </c>
+      <c r="F58" s="6">
         <v>0.90000000000000002</v>
       </c>
-      <c r="G58" s="20">
+      <c r="G58" s="6">
         <v>0.94999999999999996</v>
       </c>
-      <c r="H58" s="20"/>
+      <c r="H58" s="6"/>
     </row>
     <row r="59" ht="14.25">
       <c r="C59" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D59" s="20" t="s">
+      <c r="D59" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E59" s="20">
+      <c r="E59" s="6">
         <v>0.76000000000000001</v>
       </c>
-      <c r="F59" s="20">
+      <c r="F59" s="6">
         <v>0.94999999999999996</v>
       </c>
-      <c r="G59" s="20">
+      <c r="G59" s="6">
         <v>0.83999999999999997</v>
       </c>
-      <c r="H59" s="20">
+      <c r="H59" s="6">
         <v>0.85999999999999999</v>
       </c>
     </row>
     <row r="60" ht="14.25">
       <c r="C60" s="5"/>
-      <c r="D60" s="20" t="s">
+      <c r="D60" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E60" s="20">
+      <c r="E60" s="6">
         <v>0.89000000000000001</v>
       </c>
-      <c r="F60" s="20">
+      <c r="F60" s="6">
         <v>0.80000000000000004</v>
       </c>
-      <c r="G60" s="20">
+      <c r="G60" s="6">
         <v>0.83999999999999997</v>
       </c>
-      <c r="H60" s="20"/>
+      <c r="H60" s="6"/>
     </row>
     <row r="61" ht="14.25">
       <c r="C61" s="5"/>
-      <c r="D61" s="20" t="s">
+      <c r="D61" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E61" s="20">
+      <c r="E61" s="6">
         <v>0.93999999999999995</v>
       </c>
-      <c r="F61" s="20">
+      <c r="F61" s="6">
         <v>0.80000000000000004</v>
       </c>
-      <c r="G61" s="20">
+      <c r="G61" s="6">
         <v>0.85999999999999999</v>
       </c>
-      <c r="H61" s="20"/>
+      <c r="H61" s="6"/>
     </row>
     <row r="62" ht="14.25">
       <c r="C62" s="5"/>
-      <c r="D62" s="20" t="s">
+      <c r="D62" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E62" s="20">
+      <c r="E62" s="6">
         <v>0.90000000000000002</v>
       </c>
-      <c r="F62" s="20">
+      <c r="F62" s="6">
         <v>0.90000000000000002</v>
       </c>
-      <c r="G62" s="20">
+      <c r="G62" s="6">
         <v>0.90000000000000002</v>
       </c>
-      <c r="H62" s="20"/>
+      <c r="H62" s="6"/>
     </row>
     <row r="63" ht="14.25">
       <c r="C63" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D63" s="20" t="s">
+      <c r="D63" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E63" s="20">
-        <v>0</v>
-      </c>
-      <c r="F63" s="20">
-        <v>0</v>
-      </c>
-      <c r="G63" s="20">
-        <v>0</v>
-      </c>
-      <c r="H63" s="20">
+      <c r="E63" s="6">
+        <v>0</v>
+      </c>
+      <c r="F63" s="6">
+        <v>0</v>
+      </c>
+      <c r="G63" s="6">
+        <v>0</v>
+      </c>
+      <c r="H63" s="6">
         <v>0.59999999999999998</v>
       </c>
     </row>
     <row r="64" ht="14.25">
       <c r="C64" s="5"/>
-      <c r="D64" s="20" t="s">
+      <c r="D64" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E64" s="20">
+      <c r="E64" s="6">
         <v>0.52000000000000002</v>
       </c>
-      <c r="F64" s="20">
+      <c r="F64" s="6">
         <v>0.59999999999999998</v>
       </c>
-      <c r="G64" s="20">
+      <c r="G64" s="6">
         <v>0.56000000000000005</v>
       </c>
-      <c r="H64" s="20"/>
+      <c r="H64" s="6"/>
     </row>
     <row r="65" ht="14.25">
       <c r="C65" s="5"/>
-      <c r="D65" s="20" t="s">
+      <c r="D65" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E65" s="20">
+      <c r="E65" s="6">
         <v>0.48999999999999999</v>
       </c>
-      <c r="F65" s="20">
+      <c r="F65" s="6">
         <v>0.94999999999999996</v>
       </c>
-      <c r="G65" s="20">
+      <c r="G65" s="6">
         <v>0.64000000000000001</v>
       </c>
-      <c r="H65" s="20"/>
+      <c r="H65" s="6"/>
     </row>
     <row r="66" ht="14.25">
       <c r="C66" s="5"/>
-      <c r="D66" s="20" t="s">
+      <c r="D66" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E66" s="20">
+      <c r="E66" s="6">
         <v>0.93999999999999995</v>
       </c>
-      <c r="F66" s="20">
+      <c r="F66" s="6">
         <v>0.84999999999999998</v>
       </c>
-      <c r="G66" s="20">
+      <c r="G66" s="6">
         <v>0.89000000000000001</v>
       </c>
-      <c r="H66" s="20"/>
+      <c r="H66" s="6"/>
     </row>
     <row r="67" ht="14.25">
       <c r="C67" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D67" s="20" t="s">
+      <c r="D67" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E67" s="20">
+      <c r="E67" s="6">
         <v>0.73999999999999999</v>
       </c>
-      <c r="F67" s="20">
+      <c r="F67" s="6">
         <v>0.84999999999999998</v>
       </c>
-      <c r="G67" s="20">
+      <c r="G67" s="6">
         <v>0.79000000000000004</v>
       </c>
-      <c r="H67" s="20">
+      <c r="H67" s="6">
         <v>0.84999999999999998</v>
       </c>
     </row>
     <row r="68" ht="14.25">
       <c r="C68" s="5"/>
-      <c r="D68" s="20" t="s">
+      <c r="D68" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E68" s="20">
+      <c r="E68" s="6">
         <v>0.83999999999999997</v>
       </c>
-      <c r="F68" s="20">
+      <c r="F68" s="6">
         <v>0.80000000000000004</v>
       </c>
-      <c r="G68" s="20">
+      <c r="G68" s="6">
         <v>0.81999999999999995</v>
       </c>
-      <c r="H68" s="20"/>
+      <c r="H68" s="6"/>
     </row>
     <row r="69" ht="14.25">
       <c r="C69" s="5"/>
-      <c r="D69" s="20" t="s">
+      <c r="D69" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E69" s="20">
+      <c r="E69" s="6">
         <v>0.93999999999999995</v>
       </c>
-      <c r="F69" s="20">
+      <c r="F69" s="6">
         <v>0.80000000000000004</v>
       </c>
-      <c r="G69" s="20">
+      <c r="G69" s="6">
         <v>0.85999999999999999</v>
       </c>
-      <c r="H69" s="20"/>
+      <c r="H69" s="6"/>
     </row>
     <row r="70" ht="14.25">
       <c r="C70" s="5"/>
-      <c r="D70" s="20" t="s">
+      <c r="D70" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E70" s="20">
+      <c r="E70" s="6">
         <v>0.90000000000000002</v>
       </c>
-      <c r="F70" s="20">
+      <c r="F70" s="6">
         <v>0.94999999999999996</v>
       </c>
-      <c r="G70" s="20">
+      <c r="G70" s="6">
         <v>0.93000000000000005</v>
       </c>
-      <c r="H70" s="20"/>
+      <c r="H70" s="6"/>
     </row>
     <row r="73" ht="14.25">
-      <c r="C73" s="21" t="s">
+      <c r="C73" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D73" s="2"/>
@@ -7609,8 +7673,1716 @@
       </c>
       <c r="H104" s="6"/>
     </row>
+    <row r="107" ht="14.25">
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
+      <c r="H107" s="2"/>
+    </row>
+    <row r="108" ht="14.25">
+      <c r="C108" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D108" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E108" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F108" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G108" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H108" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" ht="14.25">
+      <c r="C109" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D109" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E109" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="F109" s="20">
+        <v>1</v>
+      </c>
+      <c r="G109" s="20">
+        <v>0.67000000000000004</v>
+      </c>
+      <c r="H109" s="20">
+        <v>0.69999999999999996</v>
+      </c>
+    </row>
+    <row r="110" ht="14.25">
+      <c r="C110" s="5"/>
+      <c r="D110" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E110" s="20">
+        <v>0.85999999999999999</v>
+      </c>
+      <c r="F110" s="20">
+        <v>1</v>
+      </c>
+      <c r="G110" s="20">
+        <v>0.92000000000000004</v>
+      </c>
+      <c r="H110" s="20"/>
+    </row>
+    <row r="111" ht="14.25">
+      <c r="C111" s="5"/>
+      <c r="D111" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E111" s="20">
+        <v>1</v>
+      </c>
+      <c r="F111" s="20">
+        <v>0.33000000000000002</v>
+      </c>
+      <c r="G111" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="H111" s="20"/>
+    </row>
+    <row r="112" ht="14.25">
+      <c r="C112" s="5"/>
+      <c r="D112" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E112" s="20">
+        <v>0.75</v>
+      </c>
+      <c r="F112" s="20">
+        <v>0.75</v>
+      </c>
+      <c r="G112" s="20">
+        <v>0.75</v>
+      </c>
+      <c r="H112" s="20"/>
+    </row>
+    <row r="113" ht="14.25">
+      <c r="C113" s="5"/>
+      <c r="D113" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E113" s="20">
+        <v>0.67000000000000004</v>
+      </c>
+      <c r="F113" s="20">
+        <v>1</v>
+      </c>
+      <c r="G113" s="20">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="H113" s="20"/>
+    </row>
+    <row r="114" ht="14.25">
+      <c r="C114" s="5"/>
+      <c r="D114" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E114" s="20">
+        <v>0</v>
+      </c>
+      <c r="F114" s="20">
+        <v>0</v>
+      </c>
+      <c r="G114" s="20">
+        <v>0</v>
+      </c>
+      <c r="H114" s="20"/>
+    </row>
+    <row r="115" ht="14.25">
+      <c r="C115" s="5"/>
+      <c r="D115" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E115" s="20">
+        <v>0.67000000000000004</v>
+      </c>
+      <c r="F115" s="20">
+        <v>0.40000000000000002</v>
+      </c>
+      <c r="G115" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="H115" s="20"/>
+    </row>
+    <row r="116" ht="14.25">
+      <c r="C116" s="5"/>
+      <c r="D116" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E116" s="20">
+        <v>1</v>
+      </c>
+      <c r="F116" s="20">
+        <v>0.75</v>
+      </c>
+      <c r="G116" s="20">
+        <v>0.85999999999999999</v>
+      </c>
+      <c r="H116" s="20"/>
+    </row>
+    <row r="117" ht="14.25">
+      <c r="C117" s="5"/>
+      <c r="D117" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E117" s="20">
+        <v>0.82999999999999996</v>
+      </c>
+      <c r="F117" s="20">
+        <v>1</v>
+      </c>
+      <c r="G117" s="20">
+        <v>0.91000000000000003</v>
+      </c>
+      <c r="H117" s="20"/>
+    </row>
+    <row r="118" ht="14.25">
+      <c r="C118" s="5"/>
+      <c r="D118" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E118" s="20">
+        <v>0.67000000000000004</v>
+      </c>
+      <c r="F118" s="20">
+        <v>0.67000000000000004</v>
+      </c>
+      <c r="G118" s="20">
+        <v>0.67000000000000004</v>
+      </c>
+      <c r="H118" s="20"/>
+    </row>
+    <row r="119" ht="14.25">
+      <c r="C119" s="5"/>
+      <c r="D119" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E119" s="20">
+        <v>0.33000000000000002</v>
+      </c>
+      <c r="F119" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="G119" s="20">
+        <v>0.40000000000000002</v>
+      </c>
+      <c r="H119" s="20"/>
+    </row>
+    <row r="120" ht="14.25">
+      <c r="C120" s="5"/>
+      <c r="D120" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E120" s="20">
+        <v>0.75</v>
+      </c>
+      <c r="F120" s="20">
+        <v>1</v>
+      </c>
+      <c r="G120" s="20">
+        <v>0.85999999999999999</v>
+      </c>
+      <c r="H120" s="20"/>
+    </row>
+    <row r="121" ht="14.25">
+      <c r="C121" s="5"/>
+      <c r="D121" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E121" s="20">
+        <v>0.40000000000000002</v>
+      </c>
+      <c r="F121" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="G121" s="20">
+        <v>0.44</v>
+      </c>
+      <c r="H121" s="20"/>
+    </row>
+    <row r="122" ht="14.25">
+      <c r="C122" s="5"/>
+      <c r="D122" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E122" s="20">
+        <v>0.67000000000000004</v>
+      </c>
+      <c r="F122" s="20">
+        <v>1</v>
+      </c>
+      <c r="G122" s="20">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="H122" s="20"/>
+    </row>
+    <row r="123" ht="14.25">
+      <c r="C123" s="5"/>
+      <c r="D123" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E123" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="F123" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="G123" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="H123" s="20"/>
+    </row>
+    <row r="124" ht="14.25">
+      <c r="C124" s="5"/>
+      <c r="D124" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E124" s="20">
+        <v>1</v>
+      </c>
+      <c r="F124" s="20">
+        <v>1</v>
+      </c>
+      <c r="G124" s="20">
+        <v>1</v>
+      </c>
+      <c r="H124" s="20"/>
+    </row>
+    <row r="125" ht="14.25">
+      <c r="C125" s="5"/>
+      <c r="D125" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E125" s="20">
+        <v>1</v>
+      </c>
+      <c r="F125" s="20">
+        <v>0.67000000000000004</v>
+      </c>
+      <c r="G125" s="20">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="H125" s="20"/>
+    </row>
+    <row r="126" ht="14.25">
+      <c r="C126" s="5"/>
+      <c r="D126" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E126" s="20">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="F126" s="20">
+        <v>0.75</v>
+      </c>
+      <c r="G126" s="20">
+        <v>0.67000000000000004</v>
+      </c>
+      <c r="H126" s="20"/>
+    </row>
+    <row r="127" ht="14.25">
+      <c r="C127" s="5"/>
+      <c r="D127" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E127" s="20">
+        <v>1</v>
+      </c>
+      <c r="F127" s="20">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="G127" s="20">
+        <v>0.89000000000000001</v>
+      </c>
+      <c r="H127" s="20"/>
+    </row>
+    <row r="128" ht="14.25">
+      <c r="C128" s="5"/>
+      <c r="D128" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E128" s="20">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="F128" s="20">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="G128" s="20">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="H128" s="20"/>
+    </row>
+    <row r="129" ht="14.25">
+      <c r="C129" s="5"/>
+      <c r="D129" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E129" s="20">
+        <v>1</v>
+      </c>
+      <c r="F129" s="20">
+        <v>0.67000000000000004</v>
+      </c>
+      <c r="G129" s="20">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="H129" s="20"/>
+    </row>
+    <row r="130" ht="14.25">
+      <c r="C130" s="5"/>
+      <c r="D130" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E130" s="20">
+        <v>0.67000000000000004</v>
+      </c>
+      <c r="F130" s="20">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="G130" s="20">
+        <v>0.72999999999999998</v>
+      </c>
+      <c r="H130" s="20"/>
+    </row>
+    <row r="131" ht="14.25">
+      <c r="C131" s="5"/>
+      <c r="D131" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E131" s="20">
+        <v>1</v>
+      </c>
+      <c r="F131" s="20">
+        <v>0.67000000000000004</v>
+      </c>
+      <c r="G131" s="20">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="H131" s="20"/>
+    </row>
+    <row r="132" ht="14.25">
+      <c r="C132" s="5"/>
+      <c r="D132" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E132" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="F132" s="20">
+        <v>1</v>
+      </c>
+      <c r="G132" s="20">
+        <v>0.67000000000000004</v>
+      </c>
+      <c r="H132" s="20"/>
+    </row>
+    <row r="133" ht="14.25">
+      <c r="C133" s="5"/>
+      <c r="D133" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E133" s="20">
+        <v>0.67000000000000004</v>
+      </c>
+      <c r="F133" s="20">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="G133" s="20">
+        <v>0.72999999999999998</v>
+      </c>
+      <c r="H133" s="20"/>
+    </row>
+    <row r="134" ht="14.25">
+      <c r="C134" s="5"/>
+      <c r="D134" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E134" s="20">
+        <v>1</v>
+      </c>
+      <c r="F134" s="20">
+        <v>0.67000000000000004</v>
+      </c>
+      <c r="G134" s="20">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="H134" s="20"/>
+    </row>
+    <row r="135" ht="14.25">
+      <c r="C135" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D135" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E135" s="20">
+        <v>1</v>
+      </c>
+      <c r="F135" s="20">
+        <v>1</v>
+      </c>
+      <c r="G135" s="20">
+        <v>1</v>
+      </c>
+      <c r="H135" s="20">
+        <v>0.91000000000000003</v>
+      </c>
+    </row>
+    <row r="136" ht="14.25">
+      <c r="C136" s="5"/>
+      <c r="D136" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E136" s="20">
+        <v>0.85999999999999999</v>
+      </c>
+      <c r="F136" s="20">
+        <v>1</v>
+      </c>
+      <c r="G136" s="20">
+        <v>0.92000000000000004</v>
+      </c>
+      <c r="H136" s="20"/>
+    </row>
+    <row r="137" ht="14.25">
+      <c r="C137" s="5"/>
+      <c r="D137" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E137" s="20">
+        <v>1</v>
+      </c>
+      <c r="F137" s="20">
+        <v>1</v>
+      </c>
+      <c r="G137" s="20">
+        <v>1</v>
+      </c>
+      <c r="H137" s="20"/>
+    </row>
+    <row r="138" ht="14.25">
+      <c r="C138" s="5"/>
+      <c r="D138" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E138" s="20">
+        <v>1</v>
+      </c>
+      <c r="F138" s="20">
+        <v>0.75</v>
+      </c>
+      <c r="G138" s="20">
+        <v>0.85999999999999999</v>
+      </c>
+      <c r="H138" s="20"/>
+    </row>
+    <row r="139" ht="14.25">
+      <c r="C139" s="5"/>
+      <c r="D139" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E139" s="20">
+        <v>1</v>
+      </c>
+      <c r="F139" s="20">
+        <v>1</v>
+      </c>
+      <c r="G139" s="20">
+        <v>1</v>
+      </c>
+      <c r="H139" s="20"/>
+    </row>
+    <row r="140" ht="14.25">
+      <c r="C140" s="5"/>
+      <c r="D140" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E140" s="20">
+        <v>1</v>
+      </c>
+      <c r="F140" s="20">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="G140" s="20">
+        <v>0.75</v>
+      </c>
+      <c r="H140" s="20"/>
+    </row>
+    <row r="141" ht="14.25">
+      <c r="C141" s="5"/>
+      <c r="D141" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E141" s="20">
+        <v>1</v>
+      </c>
+      <c r="F141" s="20">
+        <v>1</v>
+      </c>
+      <c r="G141" s="20">
+        <v>1</v>
+      </c>
+      <c r="H141" s="20"/>
+    </row>
+    <row r="142" ht="14.25">
+      <c r="C142" s="5"/>
+      <c r="D142" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E142" s="20">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F142" s="20">
+        <v>1</v>
+      </c>
+      <c r="G142" s="20">
+        <v>0.72999999999999998</v>
+      </c>
+      <c r="H142" s="20"/>
+    </row>
+    <row r="143" ht="14.25">
+      <c r="C143" s="5"/>
+      <c r="D143" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E143" s="20">
+        <v>0.82999999999999996</v>
+      </c>
+      <c r="F143" s="20">
+        <v>1</v>
+      </c>
+      <c r="G143" s="20">
+        <v>0.91000000000000003</v>
+      </c>
+      <c r="H143" s="20"/>
+    </row>
+    <row r="144" ht="14.25">
+      <c r="C144" s="5"/>
+      <c r="D144" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E144" s="20">
+        <v>1</v>
+      </c>
+      <c r="F144" s="20">
+        <v>1</v>
+      </c>
+      <c r="G144" s="20">
+        <v>1</v>
+      </c>
+      <c r="H144" s="20"/>
+    </row>
+    <row r="145" ht="14.25">
+      <c r="C145" s="5"/>
+      <c r="D145" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E145" s="20">
+        <v>1</v>
+      </c>
+      <c r="F145" s="20">
+        <v>1</v>
+      </c>
+      <c r="G145" s="20">
+        <v>1</v>
+      </c>
+      <c r="H145" s="20"/>
+    </row>
+    <row r="146" ht="14.25">
+      <c r="C146" s="5"/>
+      <c r="D146" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E146" s="20">
+        <v>1</v>
+      </c>
+      <c r="F146" s="20">
+        <v>0.67000000000000004</v>
+      </c>
+      <c r="G146" s="20">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="H146" s="20"/>
+    </row>
+    <row r="147" ht="14.25">
+      <c r="C147" s="5"/>
+      <c r="D147" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E147" s="20">
+        <v>1</v>
+      </c>
+      <c r="F147" s="20">
+        <v>1</v>
+      </c>
+      <c r="G147" s="20">
+        <v>1</v>
+      </c>
+      <c r="H147" s="20"/>
+    </row>
+    <row r="148" ht="14.25">
+      <c r="C148" s="5"/>
+      <c r="D148" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E148" s="20">
+        <v>1</v>
+      </c>
+      <c r="F148" s="20">
+        <v>1</v>
+      </c>
+      <c r="G148" s="20">
+        <v>1</v>
+      </c>
+      <c r="H148" s="20"/>
+    </row>
+    <row r="149" ht="14.25">
+      <c r="C149" s="5"/>
+      <c r="D149" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E149" s="20">
+        <v>1</v>
+      </c>
+      <c r="F149" s="20">
+        <v>1</v>
+      </c>
+      <c r="G149" s="20">
+        <v>1</v>
+      </c>
+      <c r="H149" s="20"/>
+    </row>
+    <row r="150" ht="14.25">
+      <c r="C150" s="5"/>
+      <c r="D150" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E150" s="20">
+        <v>1</v>
+      </c>
+      <c r="F150" s="20">
+        <v>1</v>
+      </c>
+      <c r="G150" s="20">
+        <v>1</v>
+      </c>
+      <c r="H150" s="20"/>
+    </row>
+    <row r="151" ht="14.25">
+      <c r="C151" s="5"/>
+      <c r="D151" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E151" s="20">
+        <v>1</v>
+      </c>
+      <c r="F151" s="20">
+        <v>1</v>
+      </c>
+      <c r="G151" s="20">
+        <v>1</v>
+      </c>
+      <c r="H151" s="20"/>
+    </row>
+    <row r="152" ht="14.25">
+      <c r="C152" s="5"/>
+      <c r="D152" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E152" s="20">
+        <v>1</v>
+      </c>
+      <c r="F152" s="20">
+        <v>0.75</v>
+      </c>
+      <c r="G152" s="20">
+        <v>0.85999999999999999</v>
+      </c>
+      <c r="H152" s="20"/>
+    </row>
+    <row r="153" ht="14.25">
+      <c r="C153" s="5"/>
+      <c r="D153" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E153" s="20">
+        <v>1</v>
+      </c>
+      <c r="F153" s="20">
+        <v>1</v>
+      </c>
+      <c r="G153" s="20">
+        <v>1</v>
+      </c>
+      <c r="H153" s="20"/>
+    </row>
+    <row r="154" ht="14.25">
+      <c r="C154" s="5"/>
+      <c r="D154" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E154" s="20">
+        <v>1</v>
+      </c>
+      <c r="F154" s="20">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="G154" s="20">
+        <v>0.89000000000000001</v>
+      </c>
+      <c r="H154" s="20"/>
+    </row>
+    <row r="155" ht="14.25">
+      <c r="C155" s="5"/>
+      <c r="D155" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E155" s="20">
+        <v>0.67000000000000004</v>
+      </c>
+      <c r="F155" s="20">
+        <v>0.67000000000000004</v>
+      </c>
+      <c r="G155" s="20">
+        <v>0.67000000000000004</v>
+      </c>
+      <c r="H155" s="20"/>
+    </row>
+    <row r="156" ht="14.25">
+      <c r="C156" s="5"/>
+      <c r="D156" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E156" s="20">
+        <v>1</v>
+      </c>
+      <c r="F156" s="20">
+        <v>1</v>
+      </c>
+      <c r="G156" s="20">
+        <v>1</v>
+      </c>
+      <c r="H156" s="20"/>
+    </row>
+    <row r="157" ht="14.25">
+      <c r="C157" s="5"/>
+      <c r="D157" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E157" s="20">
+        <v>1</v>
+      </c>
+      <c r="F157" s="20">
+        <v>0.67000000000000004</v>
+      </c>
+      <c r="G157" s="20">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="H157" s="20"/>
+    </row>
+    <row r="158" ht="14.25">
+      <c r="C158" s="5"/>
+      <c r="D158" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E158" s="20">
+        <v>0</v>
+      </c>
+      <c r="F158" s="20">
+        <v>0</v>
+      </c>
+      <c r="G158" s="20">
+        <v>0</v>
+      </c>
+      <c r="H158" s="20"/>
+    </row>
+    <row r="159" ht="14.25">
+      <c r="C159" s="5"/>
+      <c r="D159" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E159" s="20">
+        <v>0.70999999999999996</v>
+      </c>
+      <c r="F159" s="20">
+        <v>1</v>
+      </c>
+      <c r="G159" s="20">
+        <v>0.82999999999999996</v>
+      </c>
+      <c r="H159" s="20"/>
+    </row>
+    <row r="160" ht="14.25">
+      <c r="C160" s="5"/>
+      <c r="D160" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E160" s="20">
+        <v>1</v>
+      </c>
+      <c r="F160" s="20">
+        <v>1</v>
+      </c>
+      <c r="G160" s="20">
+        <v>1</v>
+      </c>
+      <c r="H160" s="20"/>
+    </row>
+    <row r="161" ht="14.25">
+      <c r="C161" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D161" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E161" s="20">
+        <v>0</v>
+      </c>
+      <c r="F161" s="20">
+        <v>0</v>
+      </c>
+      <c r="G161" s="20">
+        <v>0</v>
+      </c>
+      <c r="H161" s="20">
+        <v>0.20000000000000001</v>
+      </c>
+    </row>
+    <row r="162" ht="14.25">
+      <c r="C162" s="5"/>
+      <c r="D162" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E162" s="20">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="F162" s="20">
+        <v>0.67000000000000004</v>
+      </c>
+      <c r="G162" s="20">
+        <v>0.72999999999999998</v>
+      </c>
+      <c r="H162" s="20"/>
+    </row>
+    <row r="163" ht="14.25">
+      <c r="C163" s="5"/>
+      <c r="D163" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E163" s="20">
+        <v>1</v>
+      </c>
+      <c r="F163" s="20">
+        <v>0.33000000000000002</v>
+      </c>
+      <c r="G163" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="H163" s="20"/>
+    </row>
+    <row r="164" ht="14.25">
+      <c r="C164" s="5"/>
+      <c r="D164" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E164" s="20">
+        <v>1</v>
+      </c>
+      <c r="F164" s="20">
+        <v>0.25</v>
+      </c>
+      <c r="G164" s="20">
+        <v>0.40000000000000002</v>
+      </c>
+      <c r="H164" s="20"/>
+    </row>
+    <row r="165" ht="14.25">
+      <c r="C165" s="5"/>
+      <c r="D165" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E165" s="20">
+        <v>0</v>
+      </c>
+      <c r="F165" s="20">
+        <v>0</v>
+      </c>
+      <c r="G165" s="20">
+        <v>0</v>
+      </c>
+      <c r="H165" s="20"/>
+    </row>
+    <row r="166" ht="14.25">
+      <c r="C166" s="5"/>
+      <c r="D166" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E166" s="20">
+        <v>0.089999999999999997</v>
+      </c>
+      <c r="F166" s="20">
+        <v>1</v>
+      </c>
+      <c r="G166" s="20">
+        <v>0.17000000000000001</v>
+      </c>
+      <c r="H166" s="20"/>
+    </row>
+    <row r="167" ht="14.25">
+      <c r="C167" s="5"/>
+      <c r="D167" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E167" s="20">
+        <v>0.20999999999999999</v>
+      </c>
+      <c r="F167" s="20">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="G167" s="20">
+        <v>0.33000000000000002</v>
+      </c>
+      <c r="H167" s="20"/>
+    </row>
+    <row r="168" ht="14.25">
+      <c r="C168" s="5"/>
+      <c r="D168" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E168" s="20">
+        <v>0</v>
+      </c>
+      <c r="F168" s="20">
+        <v>0</v>
+      </c>
+      <c r="G168" s="20">
+        <v>0</v>
+      </c>
+      <c r="H168" s="20"/>
+    </row>
+    <row r="169" ht="14.25">
+      <c r="C169" s="5"/>
+      <c r="D169" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E169" s="20">
+        <v>0</v>
+      </c>
+      <c r="F169" s="20">
+        <v>0</v>
+      </c>
+      <c r="G169" s="20">
+        <v>0</v>
+      </c>
+      <c r="H169" s="20"/>
+    </row>
+    <row r="170" ht="14.25">
+      <c r="C170" s="5"/>
+      <c r="D170" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E170" s="20">
+        <v>1</v>
+      </c>
+      <c r="F170" s="20">
+        <v>0.33000000000000002</v>
+      </c>
+      <c r="G170" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="H170" s="20"/>
+    </row>
+    <row r="171" ht="14.25">
+      <c r="C171" s="5"/>
+      <c r="D171" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E171" s="20">
+        <v>0</v>
+      </c>
+      <c r="F171" s="20">
+        <v>0</v>
+      </c>
+      <c r="G171" s="20">
+        <v>0</v>
+      </c>
+      <c r="H171" s="20"/>
+    </row>
+    <row r="172" ht="14.25">
+      <c r="C172" s="5"/>
+      <c r="D172" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E172" s="20">
+        <v>0</v>
+      </c>
+      <c r="F172" s="20">
+        <v>0</v>
+      </c>
+      <c r="G172" s="20">
+        <v>0</v>
+      </c>
+      <c r="H172" s="20"/>
+    </row>
+    <row r="173" ht="14.25">
+      <c r="C173" s="5"/>
+      <c r="D173" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E173" s="20">
+        <v>0</v>
+      </c>
+      <c r="F173" s="20">
+        <v>0</v>
+      </c>
+      <c r="G173" s="20">
+        <v>0</v>
+      </c>
+      <c r="H173" s="20"/>
+    </row>
+    <row r="174" ht="14.25">
+      <c r="C174" s="5"/>
+      <c r="D174" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E174" s="20">
+        <v>0</v>
+      </c>
+      <c r="F174" s="20">
+        <v>0</v>
+      </c>
+      <c r="G174" s="20">
+        <v>0</v>
+      </c>
+      <c r="H174" s="20"/>
+    </row>
+    <row r="175" ht="14.25">
+      <c r="C175" s="5"/>
+      <c r="D175" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E175" s="20">
+        <v>0</v>
+      </c>
+      <c r="F175" s="20">
+        <v>0</v>
+      </c>
+      <c r="G175" s="20">
+        <v>0</v>
+      </c>
+      <c r="H175" s="20"/>
+    </row>
+    <row r="176" ht="14.25">
+      <c r="C176" s="5"/>
+      <c r="D176" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E176" s="20">
+        <v>0</v>
+      </c>
+      <c r="F176" s="20">
+        <v>0</v>
+      </c>
+      <c r="G176" s="20">
+        <v>0</v>
+      </c>
+      <c r="H176" s="20"/>
+    </row>
+    <row r="177" ht="14.25">
+      <c r="C177" s="5"/>
+      <c r="D177" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E177" s="20">
+        <v>1</v>
+      </c>
+      <c r="F177" s="20">
+        <v>0.33000000000000002</v>
+      </c>
+      <c r="G177" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="H177" s="20"/>
+    </row>
+    <row r="178" ht="14.25">
+      <c r="C178" s="5"/>
+      <c r="D178" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E178" s="20">
+        <v>0</v>
+      </c>
+      <c r="F178" s="20">
+        <v>0</v>
+      </c>
+      <c r="G178" s="20">
+        <v>0</v>
+      </c>
+      <c r="H178" s="20"/>
+    </row>
+    <row r="179" ht="14.25">
+      <c r="C179" s="5"/>
+      <c r="D179" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E179" s="20">
+        <v>0</v>
+      </c>
+      <c r="F179" s="20">
+        <v>0</v>
+      </c>
+      <c r="G179" s="20">
+        <v>0</v>
+      </c>
+      <c r="H179" s="20"/>
+    </row>
+    <row r="180" ht="14.25">
+      <c r="C180" s="5"/>
+      <c r="D180" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E180" s="20">
+        <v>0</v>
+      </c>
+      <c r="F180" s="20">
+        <v>0</v>
+      </c>
+      <c r="G180" s="20">
+        <v>0</v>
+      </c>
+      <c r="H180" s="20"/>
+    </row>
+    <row r="181" ht="14.25">
+      <c r="C181" s="5"/>
+      <c r="D181" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E181" s="20">
+        <v>0</v>
+      </c>
+      <c r="F181" s="20">
+        <v>0</v>
+      </c>
+      <c r="G181" s="20">
+        <v>0</v>
+      </c>
+      <c r="H181" s="20"/>
+    </row>
+    <row r="182" ht="14.25">
+      <c r="C182" s="5"/>
+      <c r="D182" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E182" s="20">
+        <v>0</v>
+      </c>
+      <c r="F182" s="20">
+        <v>0</v>
+      </c>
+      <c r="G182" s="20">
+        <v>0</v>
+      </c>
+      <c r="H182" s="20"/>
+    </row>
+    <row r="183" ht="14.25">
+      <c r="C183" s="5"/>
+      <c r="D183" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E183" s="20">
+        <v>1</v>
+      </c>
+      <c r="F183" s="20">
+        <v>0.33000000000000002</v>
+      </c>
+      <c r="G183" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="H183" s="20"/>
+    </row>
+    <row r="184" ht="14.25">
+      <c r="C184" s="5"/>
+      <c r="D184" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E184" s="20">
+        <v>0.070000000000000007</v>
+      </c>
+      <c r="F184" s="20">
+        <v>1</v>
+      </c>
+      <c r="G184" s="20">
+        <v>0.13</v>
+      </c>
+      <c r="H184" s="20"/>
+    </row>
+    <row r="185" ht="14.25">
+      <c r="C185" s="5"/>
+      <c r="D185" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E185" s="20">
+        <v>0</v>
+      </c>
+      <c r="F185" s="20">
+        <v>0</v>
+      </c>
+      <c r="G185" s="20">
+        <v>0</v>
+      </c>
+      <c r="H185" s="20"/>
+    </row>
+    <row r="186" ht="14.25">
+      <c r="C186" s="5"/>
+      <c r="D186" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E186" s="20">
+        <v>0</v>
+      </c>
+      <c r="F186" s="20">
+        <v>0</v>
+      </c>
+      <c r="G186" s="20">
+        <v>0</v>
+      </c>
+      <c r="H186" s="20"/>
+    </row>
+    <row r="187" ht="14.25">
+      <c r="C187" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D187" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E187" s="20">
+        <v>1</v>
+      </c>
+      <c r="F187" s="20">
+        <v>1</v>
+      </c>
+      <c r="G187" s="20">
+        <v>1</v>
+      </c>
+      <c r="H187" s="20">
+        <v>0.93000000000000005</v>
+      </c>
+    </row>
+    <row r="188" ht="14.25">
+      <c r="C188" s="5"/>
+      <c r="D188" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E188" s="20">
+        <v>1</v>
+      </c>
+      <c r="F188" s="20">
+        <v>0.67000000000000004</v>
+      </c>
+      <c r="G188" s="20">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="H188" s="20"/>
+    </row>
+    <row r="189" ht="14.25">
+      <c r="C189" s="5"/>
+      <c r="D189" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E189" s="20">
+        <v>1</v>
+      </c>
+      <c r="F189" s="20">
+        <v>1</v>
+      </c>
+      <c r="G189" s="20">
+        <v>1</v>
+      </c>
+      <c r="H189" s="20"/>
+    </row>
+    <row r="190" ht="14.25">
+      <c r="C190" s="5"/>
+      <c r="D190" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E190" s="20">
+        <v>1</v>
+      </c>
+      <c r="F190" s="20">
+        <v>0.75</v>
+      </c>
+      <c r="G190" s="20">
+        <v>0.85999999999999999</v>
+      </c>
+      <c r="H190" s="20"/>
+    </row>
+    <row r="191" ht="14.25">
+      <c r="C191" s="5"/>
+      <c r="D191" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E191" s="20">
+        <v>1</v>
+      </c>
+      <c r="F191" s="20">
+        <v>1</v>
+      </c>
+      <c r="G191" s="20">
+        <v>1</v>
+      </c>
+      <c r="H191" s="20"/>
+    </row>
+    <row r="192" ht="14.25">
+      <c r="C192" s="5"/>
+      <c r="D192" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E192" s="20">
+        <v>0.70999999999999996</v>
+      </c>
+      <c r="F192" s="20">
+        <v>1</v>
+      </c>
+      <c r="G192" s="20">
+        <v>0.82999999999999996</v>
+      </c>
+      <c r="H192" s="20"/>
+    </row>
+    <row r="193" ht="14.25">
+      <c r="C193" s="5"/>
+      <c r="D193" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E193" s="20">
+        <v>1</v>
+      </c>
+      <c r="F193" s="20">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="G193" s="20">
+        <v>0.89000000000000001</v>
+      </c>
+      <c r="H193" s="20"/>
+    </row>
+    <row r="194" ht="14.25">
+      <c r="C194" s="5"/>
+      <c r="D194" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E194" s="20">
+        <v>1</v>
+      </c>
+      <c r="F194" s="20">
+        <v>1</v>
+      </c>
+      <c r="G194" s="20">
+        <v>1</v>
+      </c>
+      <c r="H194" s="20"/>
+    </row>
+    <row r="195" ht="14.25">
+      <c r="C195" s="5"/>
+      <c r="D195" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E195" s="20">
+        <v>1</v>
+      </c>
+      <c r="F195" s="20">
+        <v>1</v>
+      </c>
+      <c r="G195" s="20">
+        <v>1</v>
+      </c>
+      <c r="H195" s="20"/>
+    </row>
+    <row r="196" ht="14.25">
+      <c r="C196" s="5"/>
+      <c r="D196" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E196" s="20">
+        <v>1</v>
+      </c>
+      <c r="F196" s="20">
+        <v>1</v>
+      </c>
+      <c r="G196" s="20">
+        <v>1</v>
+      </c>
+      <c r="H196" s="20"/>
+    </row>
+    <row r="197" ht="14.25">
+      <c r="C197" s="5"/>
+      <c r="D197" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E197" s="20">
+        <v>1</v>
+      </c>
+      <c r="F197" s="20">
+        <v>1</v>
+      </c>
+      <c r="G197" s="20">
+        <v>1</v>
+      </c>
+      <c r="H197" s="20"/>
+    </row>
+    <row r="198" ht="14.25">
+      <c r="C198" s="5"/>
+      <c r="D198" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E198" s="20">
+        <v>0.75</v>
+      </c>
+      <c r="F198" s="20">
+        <v>1</v>
+      </c>
+      <c r="G198" s="20">
+        <v>0.85999999999999999</v>
+      </c>
+      <c r="H198" s="20"/>
+    </row>
+    <row r="199" ht="14.25">
+      <c r="C199" s="5"/>
+      <c r="D199" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E199" s="20">
+        <v>1</v>
+      </c>
+      <c r="F199" s="20">
+        <v>1</v>
+      </c>
+      <c r="G199" s="20">
+        <v>1</v>
+      </c>
+      <c r="H199" s="20"/>
+    </row>
+    <row r="200" ht="14.25">
+      <c r="C200" s="5"/>
+      <c r="D200" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E200" s="20">
+        <v>1</v>
+      </c>
+      <c r="F200" s="20">
+        <v>1</v>
+      </c>
+      <c r="G200" s="20">
+        <v>1</v>
+      </c>
+      <c r="H200" s="20"/>
+    </row>
+    <row r="201" ht="14.25">
+      <c r="C201" s="5"/>
+      <c r="D201" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E201" s="20">
+        <v>1</v>
+      </c>
+      <c r="F201" s="20">
+        <v>1</v>
+      </c>
+      <c r="G201" s="20">
+        <v>1</v>
+      </c>
+      <c r="H201" s="20"/>
+    </row>
+    <row r="202" ht="14.25">
+      <c r="C202" s="5"/>
+      <c r="D202" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E202" s="20">
+        <v>1</v>
+      </c>
+      <c r="F202" s="20">
+        <v>1</v>
+      </c>
+      <c r="G202" s="20">
+        <v>1</v>
+      </c>
+      <c r="H202" s="20"/>
+    </row>
+    <row r="203" ht="14.25">
+      <c r="C203" s="5"/>
+      <c r="D203" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E203" s="20">
+        <v>1</v>
+      </c>
+      <c r="F203" s="20">
+        <v>1</v>
+      </c>
+      <c r="G203" s="20">
+        <v>1</v>
+      </c>
+      <c r="H203" s="20"/>
+    </row>
+    <row r="204" ht="14.25">
+      <c r="C204" s="5"/>
+      <c r="D204" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E204" s="20">
+        <v>1</v>
+      </c>
+      <c r="F204" s="20">
+        <v>1</v>
+      </c>
+      <c r="G204" s="20">
+        <v>1</v>
+      </c>
+      <c r="H204" s="20"/>
+    </row>
+    <row r="205" ht="14.25">
+      <c r="C205" s="5"/>
+      <c r="D205" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E205" s="20">
+        <v>0.70999999999999996</v>
+      </c>
+      <c r="F205" s="20">
+        <v>1</v>
+      </c>
+      <c r="G205" s="20">
+        <v>0.82999999999999996</v>
+      </c>
+      <c r="H205" s="20"/>
+    </row>
+    <row r="206" ht="14.25">
+      <c r="C206" s="5"/>
+      <c r="D206" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E206" s="20">
+        <v>1</v>
+      </c>
+      <c r="F206" s="20">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="G206" s="20">
+        <v>0.89000000000000001</v>
+      </c>
+      <c r="H206" s="20"/>
+    </row>
+    <row r="207" ht="14.25">
+      <c r="C207" s="5"/>
+      <c r="D207" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E207" s="20">
+        <v>1</v>
+      </c>
+      <c r="F207" s="20">
+        <v>1</v>
+      </c>
+      <c r="G207" s="20">
+        <v>1</v>
+      </c>
+      <c r="H207" s="20"/>
+    </row>
+    <row r="208" ht="14.25">
+      <c r="C208" s="5"/>
+      <c r="D208" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E208" s="20">
+        <v>1</v>
+      </c>
+      <c r="F208" s="20">
+        <v>1</v>
+      </c>
+      <c r="G208" s="20">
+        <v>1</v>
+      </c>
+      <c r="H208" s="20"/>
+    </row>
+    <row r="209" ht="14.25">
+      <c r="C209" s="5"/>
+      <c r="D209" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E209" s="20">
+        <v>1</v>
+      </c>
+      <c r="F209" s="20">
+        <v>0.67000000000000004</v>
+      </c>
+      <c r="G209" s="20">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="H209" s="20"/>
+    </row>
+    <row r="210" ht="14.25">
+      <c r="C210" s="5"/>
+      <c r="D210" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E210" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="F210" s="20">
+        <v>1</v>
+      </c>
+      <c r="G210" s="20">
+        <v>0.67000000000000004</v>
+      </c>
+      <c r="H210" s="20"/>
+    </row>
+    <row r="211" ht="14.25">
+      <c r="C211" s="5"/>
+      <c r="D211" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E211" s="20">
+        <v>0.82999999999999996</v>
+      </c>
+      <c r="F211" s="20">
+        <v>1</v>
+      </c>
+      <c r="G211" s="20">
+        <v>0.91000000000000003</v>
+      </c>
+      <c r="H211" s="20"/>
+    </row>
+    <row r="212" ht="14.25">
+      <c r="C212" s="5"/>
+      <c r="D212" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E212" s="20">
+        <v>1</v>
+      </c>
+      <c r="F212" s="20">
+        <v>0.82999999999999996</v>
+      </c>
+      <c r="G212" s="20">
+        <v>0.91000000000000003</v>
+      </c>
+      <c r="H212" s="20"/>
+    </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="61">
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="H6:H7"/>
@@ -7663,6 +9435,15 @@
     <mergeCell ref="H95:H99"/>
     <mergeCell ref="C100:C104"/>
     <mergeCell ref="H100:H104"/>
+    <mergeCell ref="C107:H107"/>
+    <mergeCell ref="C109:C134"/>
+    <mergeCell ref="H109:H134"/>
+    <mergeCell ref="C135:C160"/>
+    <mergeCell ref="H135:H160"/>
+    <mergeCell ref="C161:C186"/>
+    <mergeCell ref="H161:H186"/>
+    <mergeCell ref="C187:C212"/>
+    <mergeCell ref="H187:H212"/>
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
@@ -7685,7 +9466,7 @@
   <sheetData>
     <row r="2" ht="14.25">
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -8315,7 +10096,7 @@
     </row>
     <row r="43" ht="14.25">
       <c r="B43" s="2" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -8945,7 +10726,7 @@
     </row>
     <row r="85" ht="14.25">
       <c r="B85" s="2" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>

--- a/report/Tables.xlsx
+++ b/report/Tables.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t xml:space="preserve">Color Spotting</t>
   </si>
@@ -202,7 +202,7 @@
     <t>A</t>
   </si>
   <si>
-    <t>DecisionTree</t>
+    <t xml:space="preserve">10 Letters</t>
   </si>
   <si>
     <t>B</t>
@@ -220,6 +220,12 @@
     <t>M</t>
   </si>
   <si>
+    <t>DecisionTree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 Letters</t>
+  </si>
+  <si>
     <t>N</t>
   </si>
   <si>
@@ -233,6 +239,9 @@
   </si>
   <si>
     <t>W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All Letters Spotting</t>
   </si>
   <si>
     <t>C</t>
@@ -394,7 +403,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -451,14 +460,29 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="0" locked="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf fontId="5" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="6" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="5" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="6" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="6" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="6" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6099,7 +6123,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A92" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A357" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -7674,329 +7698,320 @@
       <c r="H104" s="6"/>
     </row>
     <row r="107" ht="14.25">
-      <c r="C107" s="2"/>
+      <c r="C107" s="18" t="s">
+        <v>61</v>
+      </c>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
       <c r="H107" s="2"/>
     </row>
-    <row r="108" ht="14.25">
-      <c r="C108" s="3" t="s">
+    <row r="108" ht="14.25"/>
+    <row r="109" ht="14.25">
+      <c r="C109" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D108" s="18" t="s">
+      <c r="D109" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E108" s="19" t="s">
+      <c r="E109" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F108" s="19" t="s">
+      <c r="F109" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G108" s="19" t="s">
+      <c r="G109" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H108" s="19" t="s">
+      <c r="H109" s="19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="109" ht="14.25">
-      <c r="C109" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D109" s="20" t="s">
+    <row r="110" ht="14.25">
+      <c r="C110" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D110" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="E109" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="F109" s="20">
-        <v>1</v>
-      </c>
-      <c r="G109" s="20">
-        <v>0.67000000000000004</v>
-      </c>
-      <c r="H109" s="20">
-        <v>0.69999999999999996</v>
-      </c>
-    </row>
-    <row r="110" ht="14.25">
-      <c r="C110" s="5"/>
-      <c r="D110" s="20" t="s">
-        <v>53</v>
-      </c>
       <c r="E110" s="20">
-        <v>0.85999999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="F110" s="20">
         <v>1</v>
       </c>
       <c r="G110" s="20">
-        <v>0.92000000000000004</v>
-      </c>
-      <c r="H110" s="20"/>
+        <v>0.93000000000000005</v>
+      </c>
+      <c r="H110" s="20">
+        <v>0.91000000000000003</v>
+      </c>
     </row>
     <row r="111" ht="14.25">
       <c r="C111" s="5"/>
       <c r="D111" s="20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E111" s="20">
-        <v>1</v>
+        <v>0.91000000000000003</v>
       </c>
       <c r="F111" s="20">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G111" s="20">
-        <v>0.5</v>
+        <v>0.94999999999999996</v>
       </c>
       <c r="H111" s="20"/>
     </row>
     <row r="112" ht="14.25">
       <c r="C112" s="5"/>
       <c r="D112" s="20" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E112" s="20">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F112" s="20">
-        <v>0.75</v>
+        <v>0.94999999999999996</v>
       </c>
       <c r="G112" s="20">
-        <v>0.75</v>
+        <v>0.96999999999999997</v>
       </c>
       <c r="H112" s="20"/>
     </row>
     <row r="113" ht="14.25">
       <c r="C113" s="5"/>
       <c r="D113" s="20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E113" s="20">
-        <v>0.67000000000000004</v>
+        <v>0.84999999999999998</v>
       </c>
       <c r="F113" s="20">
-        <v>1</v>
+        <v>0.84999999999999998</v>
       </c>
       <c r="G113" s="20">
-        <v>0.80000000000000004</v>
+        <v>0.84999999999999998</v>
       </c>
       <c r="H113" s="20"/>
     </row>
     <row r="114" ht="14.25">
       <c r="C114" s="5"/>
       <c r="D114" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E114" s="20">
-        <v>0</v>
+        <v>0.93999999999999995</v>
       </c>
       <c r="F114" s="20">
-        <v>0</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="G114" s="20">
-        <v>0</v>
+        <v>0.85999999999999999</v>
       </c>
       <c r="H114" s="20"/>
     </row>
     <row r="115" ht="14.25">
       <c r="C115" s="5"/>
       <c r="D115" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E115" s="20">
-        <v>0.67000000000000004</v>
+        <v>0.82999999999999996</v>
       </c>
       <c r="F115" s="20">
-        <v>0.40000000000000002</v>
+        <v>0.94999999999999996</v>
       </c>
       <c r="G115" s="20">
-        <v>0.5</v>
+        <v>0.88</v>
       </c>
       <c r="H115" s="20"/>
     </row>
     <row r="116" ht="14.25">
       <c r="C116" s="5"/>
       <c r="D116" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E116" s="20">
-        <v>1</v>
+        <v>0.85999999999999999</v>
       </c>
       <c r="F116" s="20">
-        <v>0.75</v>
+        <v>0.94999999999999996</v>
       </c>
       <c r="G116" s="20">
-        <v>0.85999999999999999</v>
+        <v>0.90000000000000002</v>
       </c>
       <c r="H116" s="20"/>
     </row>
     <row r="117" ht="14.25">
       <c r="C117" s="5"/>
       <c r="D117" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E117" s="20">
-        <v>0.82999999999999996</v>
+        <v>0.94999999999999996</v>
       </c>
       <c r="F117" s="20">
-        <v>1</v>
+        <v>0.90000000000000002</v>
       </c>
       <c r="G117" s="20">
-        <v>0.91000000000000003</v>
+        <v>0.92000000000000004</v>
       </c>
       <c r="H117" s="20"/>
     </row>
     <row r="118" ht="14.25">
       <c r="C118" s="5"/>
       <c r="D118" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E118" s="20">
-        <v>0.67000000000000004</v>
+        <v>0.88</v>
       </c>
       <c r="F118" s="20">
-        <v>0.67000000000000004</v>
+        <v>0.75</v>
       </c>
       <c r="G118" s="20">
-        <v>0.67000000000000004</v>
+        <v>0.81000000000000005</v>
       </c>
       <c r="H118" s="20"/>
     </row>
     <row r="119" ht="14.25">
       <c r="C119" s="5"/>
       <c r="D119" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E119" s="20">
+        <v>1</v>
+      </c>
+      <c r="F119" s="20">
+        <v>0.90000000000000002</v>
+      </c>
+      <c r="G119" s="20">
+        <v>0.94999999999999996</v>
+      </c>
+      <c r="H119" s="20"/>
+    </row>
+    <row r="120" ht="14.25">
+      <c r="C120" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E119" s="20">
-        <v>0.33000000000000002</v>
-      </c>
-      <c r="F119" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="G119" s="20">
-        <v>0.40000000000000002</v>
-      </c>
-      <c r="H119" s="20"/>
-    </row>
-    <row r="120" ht="14.25">
-      <c r="C120" s="5"/>
       <c r="D120" s="20" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="E120" s="20">
+        <v>0.89000000000000001</v>
+      </c>
+      <c r="F120" s="20">
+        <v>0.84999999999999998</v>
+      </c>
+      <c r="G120" s="20">
+        <v>0.87</v>
+      </c>
+      <c r="H120" s="20">
         <v>0.75</v>
       </c>
-      <c r="F120" s="20">
-        <v>1</v>
-      </c>
-      <c r="G120" s="20">
-        <v>0.85999999999999999</v>
-      </c>
-      <c r="H120" s="20"/>
     </row>
     <row r="121" ht="14.25">
       <c r="C121" s="5"/>
       <c r="D121" s="20" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="E121" s="20">
-        <v>0.40000000000000002</v>
+        <v>0.78000000000000003</v>
       </c>
       <c r="F121" s="20">
-        <v>0.5</v>
+        <v>0.90000000000000002</v>
       </c>
       <c r="G121" s="20">
-        <v>0.44</v>
+        <v>0.83999999999999997</v>
       </c>
       <c r="H121" s="20"/>
     </row>
     <row r="122" ht="14.25">
       <c r="C122" s="5"/>
       <c r="D122" s="20" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="E122" s="20">
-        <v>0.67000000000000004</v>
+        <v>0.90000000000000002</v>
       </c>
       <c r="F122" s="20">
-        <v>1</v>
+        <v>0.90000000000000002</v>
       </c>
       <c r="G122" s="20">
-        <v>0.80000000000000004</v>
+        <v>0.90000000000000002</v>
       </c>
       <c r="H122" s="20"/>
     </row>
     <row r="123" ht="14.25">
       <c r="C123" s="5"/>
       <c r="D123" s="20" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="E123" s="20">
         <v>0.5</v>
       </c>
       <c r="F123" s="20">
-        <v>0.5</v>
+        <v>0.59999999999999998</v>
       </c>
       <c r="G123" s="20">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H123" s="20"/>
     </row>
     <row r="124" ht="14.25">
       <c r="C124" s="5"/>
       <c r="D124" s="20" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="E124" s="20">
-        <v>1</v>
+        <v>0.81000000000000005</v>
       </c>
       <c r="F124" s="20">
-        <v>1</v>
+        <v>0.65000000000000002</v>
       </c>
       <c r="G124" s="20">
-        <v>1</v>
+        <v>0.71999999999999997</v>
       </c>
       <c r="H124" s="20"/>
     </row>
     <row r="125" ht="14.25">
       <c r="C125" s="5"/>
       <c r="D125" s="20" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="E125" s="20">
-        <v>1</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="F125" s="20">
-        <v>0.67000000000000004</v>
+        <v>0.75</v>
       </c>
       <c r="G125" s="20">
-        <v>0.80000000000000004</v>
+        <v>0.65000000000000002</v>
       </c>
       <c r="H125" s="20"/>
     </row>
     <row r="126" ht="14.25">
       <c r="C126" s="5"/>
       <c r="D126" s="20" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="E126" s="20">
-        <v>0.59999999999999998</v>
+        <v>0.82999999999999996</v>
       </c>
       <c r="F126" s="20">
         <v>0.75</v>
       </c>
       <c r="G126" s="20">
-        <v>0.67000000000000004</v>
+        <v>0.79000000000000004</v>
       </c>
       <c r="H126" s="20"/>
     </row>
     <row r="127" ht="14.25">
       <c r="C127" s="5"/>
       <c r="D127" s="20" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="E127" s="20">
         <v>1</v>
@@ -8012,1148 +8027,1128 @@
     <row r="128" ht="14.25">
       <c r="C128" s="5"/>
       <c r="D128" s="20" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E128" s="20">
-        <v>0.59999999999999998</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F128" s="20">
-        <v>0.59999999999999998</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G128" s="20">
-        <v>0.59999999999999998</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H128" s="20"/>
     </row>
     <row r="129" ht="14.25">
       <c r="C129" s="5"/>
       <c r="D129" s="20" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="E129" s="20">
-        <v>1</v>
+        <v>0.82999999999999996</v>
       </c>
       <c r="F129" s="20">
-        <v>0.67000000000000004</v>
+        <v>0.75</v>
       </c>
       <c r="G129" s="20">
-        <v>0.80000000000000004</v>
+        <v>0.79000000000000004</v>
       </c>
       <c r="H129" s="20"/>
     </row>
     <row r="130" ht="14.25">
-      <c r="C130" s="5"/>
+      <c r="C130" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="D130" s="20" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="E130" s="20">
-        <v>0.67000000000000004</v>
+        <v>0.91000000000000003</v>
       </c>
       <c r="F130" s="20">
-        <v>0.80000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G130" s="20">
-        <v>0.72999999999999998</v>
-      </c>
-      <c r="H130" s="20"/>
+        <v>0.94999999999999996</v>
+      </c>
+      <c r="H130" s="20">
+        <v>0.93999999999999995</v>
+      </c>
     </row>
     <row r="131" ht="14.25">
       <c r="C131" s="5"/>
       <c r="D131" s="20" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="E131" s="20">
-        <v>1</v>
+        <v>0.94999999999999996</v>
       </c>
       <c r="F131" s="20">
-        <v>0.67000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G131" s="20">
-        <v>0.80000000000000004</v>
+        <v>0.97999999999999998</v>
       </c>
       <c r="H131" s="20"/>
     </row>
     <row r="132" ht="14.25">
       <c r="C132" s="5"/>
       <c r="D132" s="20" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="E132" s="20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F132" s="20">
-        <v>1</v>
+        <v>0.94999999999999996</v>
       </c>
       <c r="G132" s="20">
-        <v>0.67000000000000004</v>
+        <v>0.96999999999999997</v>
       </c>
       <c r="H132" s="20"/>
     </row>
     <row r="133" ht="14.25">
       <c r="C133" s="5"/>
       <c r="D133" s="20" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="E133" s="20">
-        <v>0.67000000000000004</v>
+        <v>0.89000000000000001</v>
       </c>
       <c r="F133" s="20">
         <v>0.80000000000000004</v>
       </c>
       <c r="G133" s="20">
-        <v>0.72999999999999998</v>
+        <v>0.83999999999999997</v>
       </c>
       <c r="H133" s="20"/>
     </row>
     <row r="134" ht="14.25">
       <c r="C134" s="5"/>
       <c r="D134" s="20" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="E134" s="20">
-        <v>1</v>
+        <v>0.85999999999999999</v>
       </c>
       <c r="F134" s="20">
-        <v>0.67000000000000004</v>
+        <v>0.94999999999999996</v>
       </c>
       <c r="G134" s="20">
-        <v>0.80000000000000004</v>
+        <v>0.90000000000000002</v>
       </c>
       <c r="H134" s="20"/>
     </row>
     <row r="135" ht="14.25">
-      <c r="C135" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="C135" s="5"/>
       <c r="D135" s="20" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="E135" s="20">
-        <v>1</v>
+        <v>0.90000000000000002</v>
       </c>
       <c r="F135" s="20">
-        <v>1</v>
+        <v>0.90000000000000002</v>
       </c>
       <c r="G135" s="20">
-        <v>1</v>
-      </c>
-      <c r="H135" s="20">
-        <v>0.91000000000000003</v>
-      </c>
+        <v>0.90000000000000002</v>
+      </c>
+      <c r="H135" s="20"/>
     </row>
     <row r="136" ht="14.25">
       <c r="C136" s="5"/>
       <c r="D136" s="20" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E136" s="20">
-        <v>0.85999999999999999</v>
+        <v>1</v>
       </c>
       <c r="F136" s="20">
         <v>1</v>
       </c>
       <c r="G136" s="20">
-        <v>0.92000000000000004</v>
+        <v>1</v>
       </c>
       <c r="H136" s="20"/>
     </row>
     <row r="137" ht="14.25">
       <c r="C137" s="5"/>
       <c r="D137" s="20" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E137" s="20">
         <v>1</v>
       </c>
       <c r="F137" s="20">
-        <v>1</v>
+        <v>0.94999999999999996</v>
       </c>
       <c r="G137" s="20">
-        <v>1</v>
+        <v>0.96999999999999997</v>
       </c>
       <c r="H137" s="20"/>
     </row>
     <row r="138" ht="14.25">
       <c r="C138" s="5"/>
       <c r="D138" s="20" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E138" s="20">
-        <v>1</v>
+        <v>0.90000000000000002</v>
       </c>
       <c r="F138" s="20">
-        <v>0.75</v>
+        <v>0.94999999999999996</v>
       </c>
       <c r="G138" s="20">
-        <v>0.85999999999999999</v>
+        <v>0.93000000000000005</v>
       </c>
       <c r="H138" s="20"/>
     </row>
     <row r="139" ht="14.25">
       <c r="C139" s="5"/>
       <c r="D139" s="20" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E139" s="20">
         <v>1</v>
       </c>
       <c r="F139" s="20">
-        <v>1</v>
+        <v>0.90000000000000002</v>
       </c>
       <c r="G139" s="20">
-        <v>1</v>
+        <v>0.94999999999999996</v>
       </c>
       <c r="H139" s="20"/>
     </row>
     <row r="140" ht="14.25">
-      <c r="C140" s="5"/>
+      <c r="C140" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="D140" s="20" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E140" s="20">
-        <v>1</v>
+        <v>0.85999999999999999</v>
       </c>
       <c r="F140" s="20">
-        <v>0.59999999999999998</v>
+        <v>0.94999999999999996</v>
       </c>
       <c r="G140" s="20">
-        <v>0.75</v>
-      </c>
-      <c r="H140" s="20"/>
+        <v>0.90000000000000002</v>
+      </c>
+      <c r="H140" s="20">
+        <v>0.88</v>
+      </c>
     </row>
     <row r="141" ht="14.25">
       <c r="C141" s="5"/>
       <c r="D141" s="20" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E141" s="20">
-        <v>1</v>
+        <v>0.94999999999999996</v>
       </c>
       <c r="F141" s="20">
-        <v>1</v>
+        <v>0.94999999999999996</v>
       </c>
       <c r="G141" s="20">
-        <v>1</v>
+        <v>0.94999999999999996</v>
       </c>
       <c r="H141" s="20"/>
     </row>
     <row r="142" ht="14.25">
       <c r="C142" s="5"/>
       <c r="D142" s="20" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E142" s="20">
-        <v>0.56999999999999995</v>
+        <v>1</v>
       </c>
       <c r="F142" s="20">
-        <v>1</v>
+        <v>0.90000000000000002</v>
       </c>
       <c r="G142" s="20">
-        <v>0.72999999999999998</v>
+        <v>0.94999999999999996</v>
       </c>
       <c r="H142" s="20"/>
     </row>
     <row r="143" ht="14.25">
       <c r="C143" s="5"/>
       <c r="D143" s="20" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E143" s="20">
-        <v>0.82999999999999996</v>
+        <v>0.70999999999999996</v>
       </c>
       <c r="F143" s="20">
-        <v>1</v>
+        <v>0.84999999999999998</v>
       </c>
       <c r="G143" s="20">
-        <v>0.91000000000000003</v>
+        <v>0.77000000000000002</v>
       </c>
       <c r="H143" s="20"/>
     </row>
     <row r="144" ht="14.25">
       <c r="C144" s="5"/>
       <c r="D144" s="20" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E144" s="20">
-        <v>1</v>
+        <v>0.93999999999999995</v>
       </c>
       <c r="F144" s="20">
-        <v>1</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="G144" s="20">
-        <v>1</v>
+        <v>0.85999999999999999</v>
       </c>
       <c r="H144" s="20"/>
     </row>
     <row r="145" ht="14.25">
       <c r="C145" s="5"/>
       <c r="D145" s="20" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E145" s="20">
-        <v>1</v>
+        <v>0.72999999999999998</v>
       </c>
       <c r="F145" s="20">
-        <v>1</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="G145" s="20">
-        <v>1</v>
+        <v>0.76000000000000001</v>
       </c>
       <c r="H145" s="20"/>
     </row>
     <row r="146" ht="14.25">
       <c r="C146" s="5"/>
       <c r="D146" s="20" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E146" s="20">
-        <v>1</v>
+        <v>0.90000000000000002</v>
       </c>
       <c r="F146" s="20">
-        <v>0.67000000000000004</v>
+        <v>0.94999999999999996</v>
       </c>
       <c r="G146" s="20">
-        <v>0.80000000000000004</v>
+        <v>0.93000000000000005</v>
       </c>
       <c r="H146" s="20"/>
     </row>
     <row r="147" ht="14.25">
       <c r="C147" s="5"/>
       <c r="D147" s="20" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E147" s="20">
         <v>1</v>
       </c>
       <c r="F147" s="20">
-        <v>1</v>
+        <v>0.84999999999999998</v>
       </c>
       <c r="G147" s="20">
-        <v>1</v>
+        <v>0.92000000000000004</v>
       </c>
       <c r="H147" s="20"/>
     </row>
     <row r="148" ht="14.25">
       <c r="C148" s="5"/>
       <c r="D148" s="20" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E148" s="20">
-        <v>1</v>
+        <v>0.83999999999999997</v>
       </c>
       <c r="F148" s="20">
-        <v>1</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="G148" s="20">
-        <v>1</v>
+        <v>0.81999999999999995</v>
       </c>
       <c r="H148" s="20"/>
     </row>
     <row r="149" ht="14.25">
       <c r="C149" s="5"/>
       <c r="D149" s="20" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E149" s="20">
-        <v>1</v>
+        <v>0.90000000000000002</v>
       </c>
       <c r="F149" s="20">
-        <v>1</v>
+        <v>0.90000000000000002</v>
       </c>
       <c r="G149" s="20">
-        <v>1</v>
+        <v>0.90000000000000002</v>
       </c>
       <c r="H149" s="20"/>
     </row>
     <row r="150" ht="14.25">
-      <c r="C150" s="5"/>
-      <c r="D150" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="E150" s="20">
-        <v>1</v>
-      </c>
-      <c r="F150" s="20">
-        <v>1</v>
-      </c>
-      <c r="G150" s="20">
-        <v>1</v>
-      </c>
-      <c r="H150" s="20"/>
+      <c r="C150" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E150" s="5">
+        <v>0</v>
+      </c>
+      <c r="F150" s="5">
+        <v>0</v>
+      </c>
+      <c r="G150" s="5">
+        <v>0</v>
+      </c>
+      <c r="H150" s="5">
+        <v>0.28000000000000003</v>
+      </c>
     </row>
     <row r="151" ht="14.25">
       <c r="C151" s="5"/>
-      <c r="D151" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="E151" s="20">
-        <v>1</v>
-      </c>
-      <c r="F151" s="20">
-        <v>1</v>
-      </c>
-      <c r="G151" s="20">
-        <v>1</v>
-      </c>
-      <c r="H151" s="20"/>
+      <c r="D151" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E151" s="5">
+        <v>0.63</v>
+      </c>
+      <c r="F151" s="5">
+        <v>0.94999999999999996</v>
+      </c>
+      <c r="G151" s="5">
+        <v>0.76000000000000001</v>
+      </c>
+      <c r="H151" s="5"/>
     </row>
     <row r="152" ht="14.25">
       <c r="C152" s="5"/>
-      <c r="D152" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="E152" s="20">
-        <v>1</v>
-      </c>
-      <c r="F152" s="20">
-        <v>0.75</v>
-      </c>
-      <c r="G152" s="20">
-        <v>0.85999999999999999</v>
-      </c>
-      <c r="H152" s="20"/>
+      <c r="D152" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E152" s="5">
+        <v>0.73999999999999999</v>
+      </c>
+      <c r="F152" s="5">
+        <v>0.69999999999999996</v>
+      </c>
+      <c r="G152" s="5">
+        <v>0.71999999999999997</v>
+      </c>
+      <c r="H152" s="5"/>
     </row>
     <row r="153" ht="14.25">
       <c r="C153" s="5"/>
-      <c r="D153" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="E153" s="20">
-        <v>1</v>
-      </c>
-      <c r="F153" s="20">
-        <v>1</v>
-      </c>
-      <c r="G153" s="20">
-        <v>1</v>
-      </c>
-      <c r="H153" s="20"/>
+      <c r="D153" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E153" s="5">
+        <v>0</v>
+      </c>
+      <c r="F153" s="5">
+        <v>0</v>
+      </c>
+      <c r="G153" s="5">
+        <v>0</v>
+      </c>
+      <c r="H153" s="5"/>
     </row>
     <row r="154" ht="14.25">
       <c r="C154" s="5"/>
-      <c r="D154" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="E154" s="20">
-        <v>1</v>
-      </c>
-      <c r="F154" s="20">
-        <v>0.80000000000000004</v>
-      </c>
-      <c r="G154" s="20">
-        <v>0.89000000000000001</v>
-      </c>
-      <c r="H154" s="20"/>
+      <c r="D154" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E154" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F154" s="5">
+        <v>1</v>
+      </c>
+      <c r="G154" s="5">
+        <v>0.23999999999999999</v>
+      </c>
+      <c r="H154" s="5"/>
     </row>
     <row r="155" ht="14.25">
       <c r="C155" s="5"/>
-      <c r="D155" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="E155" s="20">
-        <v>0.67000000000000004</v>
-      </c>
-      <c r="F155" s="20">
-        <v>0.67000000000000004</v>
-      </c>
-      <c r="G155" s="20">
-        <v>0.67000000000000004</v>
-      </c>
-      <c r="H155" s="20"/>
+      <c r="D155" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E155" s="5">
+        <v>0</v>
+      </c>
+      <c r="F155" s="5">
+        <v>0</v>
+      </c>
+      <c r="G155" s="5">
+        <v>0</v>
+      </c>
+      <c r="H155" s="5"/>
     </row>
     <row r="156" ht="14.25">
       <c r="C156" s="5"/>
-      <c r="D156" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="E156" s="20">
-        <v>1</v>
-      </c>
-      <c r="F156" s="20">
-        <v>1</v>
-      </c>
-      <c r="G156" s="20">
-        <v>1</v>
-      </c>
-      <c r="H156" s="20"/>
+      <c r="D156" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E156" s="5">
+        <v>1</v>
+      </c>
+      <c r="F156" s="5">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="G156" s="5">
+        <v>0.17999999999999999</v>
+      </c>
+      <c r="H156" s="5"/>
     </row>
     <row r="157" ht="14.25">
       <c r="C157" s="5"/>
-      <c r="D157" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="E157" s="20">
-        <v>1</v>
-      </c>
-      <c r="F157" s="20">
-        <v>0.67000000000000004</v>
-      </c>
-      <c r="G157" s="20">
-        <v>0.80000000000000004</v>
-      </c>
-      <c r="H157" s="20"/>
+      <c r="D157" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E157" s="5">
+        <v>0</v>
+      </c>
+      <c r="F157" s="5">
+        <v>0</v>
+      </c>
+      <c r="G157" s="5">
+        <v>0</v>
+      </c>
+      <c r="H157" s="5"/>
     </row>
     <row r="158" ht="14.25">
       <c r="C158" s="5"/>
-      <c r="D158" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="E158" s="20">
-        <v>0</v>
-      </c>
-      <c r="F158" s="20">
-        <v>0</v>
-      </c>
-      <c r="G158" s="20">
-        <v>0</v>
-      </c>
-      <c r="H158" s="20"/>
+      <c r="D158" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E158" s="5">
+        <v>0</v>
+      </c>
+      <c r="F158" s="5">
+        <v>0</v>
+      </c>
+      <c r="G158" s="5">
+        <v>0</v>
+      </c>
+      <c r="H158" s="5"/>
     </row>
     <row r="159" ht="14.25">
       <c r="C159" s="5"/>
-      <c r="D159" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="E159" s="20">
-        <v>0.70999999999999996</v>
-      </c>
-      <c r="F159" s="20">
-        <v>1</v>
-      </c>
-      <c r="G159" s="20">
+      <c r="D159" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E159" s="5">
+        <v>1</v>
+      </c>
+      <c r="F159" s="5">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="G159" s="5">
+        <v>0.17999999999999999</v>
+      </c>
+      <c r="H159" s="5"/>
+    </row>
+    <row r="160" ht="14.25">
+      <c r="C160" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D160" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E160" s="20">
+        <v>0.90000000000000002</v>
+      </c>
+      <c r="F160" s="20">
+        <v>0.94999999999999996</v>
+      </c>
+      <c r="G160" s="20">
+        <v>0.93000000000000005</v>
+      </c>
+      <c r="H160" s="20">
+        <v>0.91000000000000003</v>
+      </c>
+    </row>
+    <row r="161" ht="14.25">
+      <c r="C161" s="5"/>
+      <c r="D161" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E161" s="20">
         <v>0.82999999999999996</v>
       </c>
-      <c r="H159" s="20"/>
-    </row>
-    <row r="160" ht="14.25">
-      <c r="C160" s="5"/>
-      <c r="D160" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="E160" s="20">
-        <v>1</v>
-      </c>
-      <c r="F160" s="20">
-        <v>1</v>
-      </c>
-      <c r="G160" s="20">
-        <v>1</v>
-      </c>
-      <c r="H160" s="20"/>
-    </row>
-    <row r="161" ht="14.25">
-      <c r="C161" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D161" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="E161" s="20">
-        <v>0</v>
-      </c>
       <c r="F161" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G161" s="20">
-        <v>0</v>
-      </c>
-      <c r="H161" s="20">
-        <v>0.20000000000000001</v>
-      </c>
+        <v>0.91000000000000003</v>
+      </c>
+      <c r="H161" s="20"/>
     </row>
     <row r="162" ht="14.25">
       <c r="C162" s="5"/>
       <c r="D162" s="20" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E162" s="20">
-        <v>0.80000000000000004</v>
+        <v>1</v>
       </c>
       <c r="F162" s="20">
-        <v>0.67000000000000004</v>
+        <v>0.94999999999999996</v>
       </c>
       <c r="G162" s="20">
-        <v>0.72999999999999998</v>
+        <v>0.96999999999999997</v>
       </c>
       <c r="H162" s="20"/>
     </row>
     <row r="163" ht="14.25">
       <c r="C163" s="5"/>
       <c r="D163" s="20" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E163" s="20">
-        <v>1</v>
+        <v>0.81000000000000005</v>
       </c>
       <c r="F163" s="20">
-        <v>0.33000000000000002</v>
+        <v>0.84999999999999998</v>
       </c>
       <c r="G163" s="20">
-        <v>0.5</v>
+        <v>0.82999999999999996</v>
       </c>
       <c r="H163" s="20"/>
     </row>
     <row r="164" ht="14.25">
       <c r="C164" s="5"/>
       <c r="D164" s="20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E164" s="20">
-        <v>1</v>
+        <v>0.93999999999999995</v>
       </c>
       <c r="F164" s="20">
-        <v>0.25</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="G164" s="20">
-        <v>0.40000000000000002</v>
+        <v>0.85999999999999999</v>
       </c>
       <c r="H164" s="20"/>
     </row>
     <row r="165" ht="14.25">
       <c r="C165" s="5"/>
       <c r="D165" s="20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E165" s="20">
-        <v>0</v>
+        <v>0.89000000000000001</v>
       </c>
       <c r="F165" s="20">
-        <v>0</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="G165" s="20">
-        <v>0</v>
+        <v>0.83999999999999997</v>
       </c>
       <c r="H165" s="20"/>
     </row>
     <row r="166" ht="14.25">
       <c r="C166" s="5"/>
       <c r="D166" s="20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E166" s="20">
-        <v>0.089999999999999997</v>
+        <v>0.94999999999999996</v>
       </c>
       <c r="F166" s="20">
-        <v>1</v>
+        <v>0.90000000000000002</v>
       </c>
       <c r="G166" s="20">
-        <v>0.17000000000000001</v>
+        <v>0.92000000000000004</v>
       </c>
       <c r="H166" s="20"/>
     </row>
     <row r="167" ht="14.25">
       <c r="C167" s="5"/>
       <c r="D167" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E167" s="20">
-        <v>0.20999999999999999</v>
+        <v>0.94999999999999996</v>
       </c>
       <c r="F167" s="20">
-        <v>0.80000000000000004</v>
+        <v>0.94999999999999996</v>
       </c>
       <c r="G167" s="20">
-        <v>0.33000000000000002</v>
+        <v>0.94999999999999996</v>
       </c>
       <c r="H167" s="20"/>
     </row>
     <row r="168" ht="14.25">
       <c r="C168" s="5"/>
       <c r="D168" s="20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E168" s="20">
-        <v>0</v>
+        <v>0.91000000000000003</v>
       </c>
       <c r="F168" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G168" s="20">
-        <v>0</v>
+        <v>0.94999999999999996</v>
       </c>
       <c r="H168" s="20"/>
     </row>
     <row r="169" ht="14.25">
       <c r="C169" s="5"/>
       <c r="D169" s="20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E169" s="20">
-        <v>0</v>
+        <v>0.94999999999999996</v>
       </c>
       <c r="F169" s="20">
-        <v>0</v>
+        <v>0.90000000000000002</v>
       </c>
       <c r="G169" s="20">
-        <v>0</v>
+        <v>0.92000000000000004</v>
       </c>
       <c r="H169" s="20"/>
     </row>
-    <row r="170" ht="14.25">
-      <c r="C170" s="5"/>
-      <c r="D170" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="E170" s="20">
-        <v>1</v>
-      </c>
-      <c r="F170" s="20">
-        <v>0.33000000000000002</v>
-      </c>
-      <c r="G170" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="H170" s="20"/>
-    </row>
-    <row r="171" ht="14.25">
-      <c r="C171" s="5"/>
-      <c r="D171" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E171" s="20">
-        <v>0</v>
-      </c>
-      <c r="F171" s="20">
-        <v>0</v>
-      </c>
-      <c r="G171" s="20">
-        <v>0</v>
-      </c>
-      <c r="H171" s="20"/>
-    </row>
+    <row r="170" ht="14.25"/>
+    <row r="171" ht="14.25"/>
     <row r="172" ht="14.25">
-      <c r="C172" s="5"/>
-      <c r="D172" s="20" t="s">
+      <c r="C172" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="E172" s="20">
-        <v>0</v>
-      </c>
-      <c r="F172" s="20">
-        <v>0</v>
-      </c>
-      <c r="G172" s="20">
-        <v>0</v>
-      </c>
-      <c r="H172" s="20"/>
+      <c r="D172" s="2"/>
+      <c r="E172" s="2"/>
+      <c r="F172" s="2"/>
+      <c r="G172" s="2"/>
+      <c r="H172" s="2"/>
     </row>
     <row r="173" ht="14.25">
-      <c r="C173" s="5"/>
-      <c r="D173" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="E173" s="20">
-        <v>0</v>
-      </c>
-      <c r="F173" s="20">
-        <v>0</v>
-      </c>
-      <c r="G173" s="20">
-        <v>0</v>
-      </c>
-      <c r="H173" s="20"/>
+      <c r="C173" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D173" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E173" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F173" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G173" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H173" s="19" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="174" ht="14.25">
-      <c r="C174" s="5"/>
+      <c r="C174" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="D174" s="20" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="E174" s="20">
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="F174" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G174" s="20">
-        <v>0</v>
-      </c>
-      <c r="H174" s="20"/>
+        <v>0.93000000000000005</v>
+      </c>
+      <c r="H174" s="20">
+        <v>0.88</v>
+      </c>
     </row>
     <row r="175" ht="14.25">
       <c r="C175" s="5"/>
       <c r="D175" s="20" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="E175" s="20">
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="F175" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G175" s="20">
-        <v>0</v>
+        <v>0.93000000000000005</v>
       </c>
       <c r="H175" s="20"/>
     </row>
     <row r="176" ht="14.25">
       <c r="C176" s="5"/>
       <c r="D176" s="20" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="E176" s="20">
-        <v>0</v>
+        <v>0.94999999999999996</v>
       </c>
       <c r="F176" s="20">
-        <v>0</v>
+        <v>0.90000000000000002</v>
       </c>
       <c r="G176" s="20">
-        <v>0</v>
+        <v>0.92000000000000004</v>
       </c>
       <c r="H176" s="20"/>
     </row>
     <row r="177" ht="14.25">
       <c r="C177" s="5"/>
       <c r="D177" s="20" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="E177" s="20">
-        <v>1</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="F177" s="20">
-        <v>0.33000000000000002</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="G177" s="20">
-        <v>0.5</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="H177" s="20"/>
     </row>
     <row r="178" ht="14.25">
       <c r="C178" s="5"/>
       <c r="D178" s="20" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="E178" s="20">
-        <v>0</v>
+        <v>0.93999999999999995</v>
       </c>
       <c r="F178" s="20">
-        <v>0</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="G178" s="20">
-        <v>0</v>
+        <v>0.85999999999999999</v>
       </c>
       <c r="H178" s="20"/>
     </row>
     <row r="179" ht="14.25">
       <c r="C179" s="5"/>
       <c r="D179" s="20" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="E179" s="20">
-        <v>0</v>
+        <v>0.82999999999999996</v>
       </c>
       <c r="F179" s="20">
-        <v>0</v>
+        <v>0.94999999999999996</v>
       </c>
       <c r="G179" s="20">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="H179" s="20"/>
     </row>
     <row r="180" ht="14.25">
       <c r="C180" s="5"/>
       <c r="D180" s="20" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="E180" s="20">
-        <v>0</v>
+        <v>0.90000000000000002</v>
       </c>
       <c r="F180" s="20">
-        <v>0</v>
+        <v>0.94999999999999996</v>
       </c>
       <c r="G180" s="20">
-        <v>0</v>
+        <v>0.93000000000000005</v>
       </c>
       <c r="H180" s="20"/>
     </row>
     <row r="181" ht="14.25">
       <c r="C181" s="5"/>
       <c r="D181" s="20" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="E181" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F181" s="20">
-        <v>0</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="G181" s="20">
-        <v>0</v>
+        <v>0.89000000000000001</v>
       </c>
       <c r="H181" s="20"/>
     </row>
     <row r="182" ht="14.25">
       <c r="C182" s="5"/>
       <c r="D182" s="20" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="E182" s="20">
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="F182" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G182" s="20">
-        <v>0</v>
+        <v>0.93000000000000005</v>
       </c>
       <c r="H182" s="20"/>
     </row>
     <row r="183" ht="14.25">
       <c r="C183" s="5"/>
       <c r="D183" s="20" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="E183" s="20">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="F183" s="20">
-        <v>0.33000000000000002</v>
+        <v>0.75</v>
       </c>
       <c r="G183" s="20">
-        <v>0.5</v>
+        <v>0.81000000000000005</v>
       </c>
       <c r="H183" s="20"/>
     </row>
     <row r="184" ht="14.25">
       <c r="C184" s="5"/>
       <c r="D184" s="20" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="E184" s="20">
-        <v>0.070000000000000007</v>
+        <v>0.90000000000000002</v>
       </c>
       <c r="F184" s="20">
-        <v>1</v>
+        <v>0.94999999999999996</v>
       </c>
       <c r="G184" s="20">
-        <v>0.13</v>
+        <v>0.93000000000000005</v>
       </c>
       <c r="H184" s="20"/>
     </row>
     <row r="185" ht="14.25">
       <c r="C185" s="5"/>
       <c r="D185" s="20" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E185" s="20">
-        <v>0</v>
+        <v>0.94999999999999996</v>
       </c>
       <c r="F185" s="20">
-        <v>0</v>
+        <v>0.94999999999999996</v>
       </c>
       <c r="G185" s="20">
-        <v>0</v>
+        <v>0.94999999999999996</v>
       </c>
       <c r="H185" s="20"/>
     </row>
     <row r="186" ht="14.25">
       <c r="C186" s="5"/>
       <c r="D186" s="20" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E186" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F186" s="20">
-        <v>0</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="G186" s="20">
-        <v>0</v>
+        <v>0.89000000000000001</v>
       </c>
       <c r="H186" s="20"/>
     </row>
     <row r="187" ht="14.25">
-      <c r="C187" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="C187" s="5"/>
       <c r="D187" s="20" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="E187" s="20">
-        <v>1</v>
+        <v>0.82999999999999996</v>
       </c>
       <c r="F187" s="20">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="G187" s="20">
-        <v>1</v>
-      </c>
-      <c r="H187" s="20">
-        <v>0.93000000000000005</v>
-      </c>
+        <v>0.79000000000000004</v>
+      </c>
+      <c r="H187" s="20"/>
     </row>
     <row r="188" ht="14.25">
       <c r="C188" s="5"/>
       <c r="D188" s="20" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="E188" s="20">
-        <v>1</v>
+        <v>0.73999999999999999</v>
       </c>
       <c r="F188" s="20">
-        <v>0.67000000000000004</v>
+        <v>0.84999999999999998</v>
       </c>
       <c r="G188" s="20">
-        <v>0.80000000000000004</v>
+        <v>0.79000000000000004</v>
       </c>
       <c r="H188" s="20"/>
     </row>
     <row r="189" ht="14.25">
-      <c r="C189" s="5"/>
+      <c r="C189" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="D189" s="20" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E189" s="20">
-        <v>1</v>
+        <v>0.93999999999999995</v>
       </c>
       <c r="F189" s="20">
-        <v>1</v>
+        <v>0.84999999999999998</v>
       </c>
       <c r="G189" s="20">
-        <v>1</v>
-      </c>
-      <c r="H189" s="20"/>
+        <v>0.89000000000000001</v>
+      </c>
+      <c r="H189" s="20">
+        <v>0.73999999999999999</v>
+      </c>
     </row>
     <row r="190" ht="14.25">
       <c r="C190" s="5"/>
       <c r="D190" s="20" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E190" s="20">
-        <v>1</v>
+        <v>0.90000000000000002</v>
       </c>
       <c r="F190" s="20">
-        <v>0.75</v>
+        <v>0.90000000000000002</v>
       </c>
       <c r="G190" s="20">
-        <v>0.85999999999999999</v>
+        <v>0.90000000000000002</v>
       </c>
       <c r="H190" s="20"/>
     </row>
     <row r="191" ht="14.25">
       <c r="C191" s="5"/>
       <c r="D191" s="20" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E191" s="20">
-        <v>1</v>
+        <v>0.78000000000000003</v>
       </c>
       <c r="F191" s="20">
-        <v>1</v>
+        <v>0.69999999999999996</v>
       </c>
       <c r="G191" s="20">
-        <v>1</v>
+        <v>0.73999999999999999</v>
       </c>
       <c r="H191" s="20"/>
     </row>
     <row r="192" ht="14.25">
       <c r="C192" s="5"/>
       <c r="D192" s="20" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E192" s="20">
-        <v>0.70999999999999996</v>
+        <v>0.62</v>
       </c>
       <c r="F192" s="20">
-        <v>1</v>
+        <v>0.65000000000000002</v>
       </c>
       <c r="G192" s="20">
-        <v>0.82999999999999996</v>
+        <v>0.63</v>
       </c>
       <c r="H192" s="20"/>
     </row>
     <row r="193" ht="14.25">
       <c r="C193" s="5"/>
       <c r="D193" s="20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E193" s="20">
-        <v>1</v>
+        <v>0.62</v>
       </c>
       <c r="F193" s="20">
-        <v>0.80000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="G193" s="20">
-        <v>0.89000000000000001</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="H193" s="20"/>
     </row>
     <row r="194" ht="14.25">
       <c r="C194" s="5"/>
       <c r="D194" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E194" s="20">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="F194" s="20">
-        <v>1</v>
+        <v>0.69999999999999996</v>
       </c>
       <c r="G194" s="20">
-        <v>1</v>
+        <v>0.78000000000000003</v>
       </c>
       <c r="H194" s="20"/>
     </row>
     <row r="195" ht="14.25">
       <c r="C195" s="5"/>
       <c r="D195" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E195" s="20">
-        <v>1</v>
+        <v>0.82999999999999996</v>
       </c>
       <c r="F195" s="20">
-        <v>1</v>
+        <v>0.94999999999999996</v>
       </c>
       <c r="G195" s="20">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="H195" s="20"/>
     </row>
     <row r="196" ht="14.25">
       <c r="C196" s="5"/>
       <c r="D196" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E196" s="20">
-        <v>1</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="F196" s="20">
-        <v>1</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="G196" s="20">
-        <v>1</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="H196" s="20"/>
     </row>
     <row r="197" ht="14.25">
       <c r="C197" s="5"/>
       <c r="D197" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E197" s="20">
-        <v>1</v>
+        <v>0.62</v>
       </c>
       <c r="F197" s="20">
-        <v>1</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="G197" s="20">
-        <v>1</v>
+        <v>0.69999999999999996</v>
       </c>
       <c r="H197" s="20"/>
     </row>
     <row r="198" ht="14.25">
       <c r="C198" s="5"/>
       <c r="D198" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E198" s="20">
-        <v>0.75</v>
+        <v>0.47999999999999998</v>
       </c>
       <c r="F198" s="20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G198" s="20">
-        <v>0.85999999999999999</v>
+        <v>0.48999999999999999</v>
       </c>
       <c r="H198" s="20"/>
     </row>
@@ -9163,13 +9158,13 @@
         <v>69</v>
       </c>
       <c r="E199" s="20">
-        <v>1</v>
+        <v>0.76000000000000001</v>
       </c>
       <c r="F199" s="20">
-        <v>1</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="G199" s="20">
-        <v>1</v>
+        <v>0.78000000000000003</v>
       </c>
       <c r="H199" s="20"/>
     </row>
@@ -9179,13 +9174,13 @@
         <v>70</v>
       </c>
       <c r="E200" s="20">
-        <v>1</v>
+        <v>0.78000000000000003</v>
       </c>
       <c r="F200" s="20">
-        <v>1</v>
+        <v>0.90000000000000002</v>
       </c>
       <c r="G200" s="20">
-        <v>1</v>
+        <v>0.83999999999999997</v>
       </c>
       <c r="H200" s="20"/>
     </row>
@@ -9195,13 +9190,13 @@
         <v>71</v>
       </c>
       <c r="E201" s="20">
-        <v>1</v>
+        <v>0.81999999999999995</v>
       </c>
       <c r="F201" s="20">
-        <v>1</v>
+        <v>0.69999999999999996</v>
       </c>
       <c r="G201" s="20">
-        <v>1</v>
+        <v>0.76000000000000001</v>
       </c>
       <c r="H201" s="20"/>
     </row>
@@ -9211,13 +9206,13 @@
         <v>72</v>
       </c>
       <c r="E202" s="20">
-        <v>1</v>
+        <v>0.65000000000000002</v>
       </c>
       <c r="F202" s="20">
-        <v>1</v>
+        <v>0.65000000000000002</v>
       </c>
       <c r="G202" s="20">
-        <v>1</v>
+        <v>0.65000000000000002</v>
       </c>
       <c r="H202" s="20"/>
     </row>
@@ -9227,162 +9222,2704 @@
         <v>73</v>
       </c>
       <c r="E203" s="20">
-        <v>1</v>
+        <v>0.65000000000000002</v>
       </c>
       <c r="F203" s="20">
-        <v>1</v>
+        <v>0.65000000000000002</v>
       </c>
       <c r="G203" s="20">
-        <v>1</v>
+        <v>0.65000000000000002</v>
       </c>
       <c r="H203" s="20"/>
     </row>
     <row r="204" ht="14.25">
-      <c r="C204" s="5"/>
+      <c r="C204" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="D204" s="20" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="E204" s="20">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="F204" s="20">
         <v>1</v>
       </c>
       <c r="G204" s="20">
-        <v>1</v>
-      </c>
-      <c r="H204" s="20"/>
+        <v>0.93000000000000005</v>
+      </c>
+      <c r="H204" s="20">
+        <v>0.92000000000000004</v>
+      </c>
     </row>
     <row r="205" ht="14.25">
       <c r="C205" s="5"/>
       <c r="D205" s="20" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="E205" s="20">
-        <v>0.70999999999999996</v>
+        <v>0.94999999999999996</v>
       </c>
       <c r="F205" s="20">
         <v>1</v>
       </c>
       <c r="G205" s="20">
-        <v>0.82999999999999996</v>
+        <v>0.97999999999999998</v>
       </c>
       <c r="H205" s="20"/>
     </row>
     <row r="206" ht="14.25">
       <c r="C206" s="5"/>
       <c r="D206" s="20" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="E206" s="20">
-        <v>1</v>
+        <v>0.94999999999999996</v>
       </c>
       <c r="F206" s="20">
-        <v>0.80000000000000004</v>
+        <v>0.90000000000000002</v>
       </c>
       <c r="G206" s="20">
-        <v>0.89000000000000001</v>
+        <v>0.92000000000000004</v>
       </c>
       <c r="H206" s="20"/>
     </row>
     <row r="207" ht="14.25">
       <c r="C207" s="5"/>
       <c r="D207" s="20" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="E207" s="20">
-        <v>1</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="F207" s="20">
-        <v>1</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="G207" s="20">
-        <v>1</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="H207" s="20"/>
     </row>
     <row r="208" ht="14.25">
       <c r="C208" s="5"/>
       <c r="D208" s="20" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="E208" s="20">
-        <v>1</v>
+        <v>0.90000000000000002</v>
       </c>
       <c r="F208" s="20">
-        <v>1</v>
+        <v>0.94999999999999996</v>
       </c>
       <c r="G208" s="20">
-        <v>1</v>
+        <v>0.93000000000000005</v>
       </c>
       <c r="H208" s="20"/>
     </row>
     <row r="209" ht="14.25">
       <c r="C209" s="5"/>
       <c r="D209" s="20" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="E209" s="20">
-        <v>1</v>
+        <v>0.94999999999999996</v>
       </c>
       <c r="F209" s="20">
-        <v>0.67000000000000004</v>
+        <v>0.90000000000000002</v>
       </c>
       <c r="G209" s="20">
-        <v>0.80000000000000004</v>
+        <v>0.92000000000000004</v>
       </c>
       <c r="H209" s="20"/>
     </row>
     <row r="210" ht="14.25">
       <c r="C210" s="5"/>
       <c r="D210" s="20" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="E210" s="20">
-        <v>0.5</v>
+        <v>0.94999999999999996</v>
       </c>
       <c r="F210" s="20">
         <v>1</v>
       </c>
       <c r="G210" s="20">
-        <v>0.67000000000000004</v>
+        <v>0.97999999999999998</v>
       </c>
       <c r="H210" s="20"/>
     </row>
     <row r="211" ht="14.25">
       <c r="C211" s="5"/>
       <c r="D211" s="20" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="E211" s="20">
-        <v>0.82999999999999996</v>
+        <v>0.93999999999999995</v>
       </c>
       <c r="F211" s="20">
-        <v>1</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="G211" s="20">
-        <v>0.91000000000000003</v>
+        <v>0.85999999999999999</v>
       </c>
       <c r="H211" s="20"/>
     </row>
     <row r="212" ht="14.25">
       <c r="C212" s="5"/>
       <c r="D212" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E212" s="20">
+        <v>0.85999999999999999</v>
+      </c>
+      <c r="F212" s="20">
+        <v>0.94999999999999996</v>
+      </c>
+      <c r="G212" s="20">
+        <v>0.90000000000000002</v>
+      </c>
+      <c r="H212" s="20"/>
+    </row>
+    <row r="213" ht="14.25">
+      <c r="C213" s="5"/>
+      <c r="D213" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E213" s="20">
+        <v>0.89000000000000001</v>
+      </c>
+      <c r="F213" s="20">
+        <v>0.84999999999999998</v>
+      </c>
+      <c r="G213" s="20">
+        <v>0.87</v>
+      </c>
+      <c r="H213" s="20"/>
+    </row>
+    <row r="214" ht="14.25">
+      <c r="C214" s="5"/>
+      <c r="D214" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E214" s="20">
+        <v>0.94999999999999996</v>
+      </c>
+      <c r="F214" s="20">
+        <v>1</v>
+      </c>
+      <c r="G214" s="20">
+        <v>0.97999999999999998</v>
+      </c>
+      <c r="H214" s="20"/>
+    </row>
+    <row r="215" ht="14.25">
+      <c r="C215" s="5"/>
+      <c r="D215" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E215" s="20">
+        <v>1</v>
+      </c>
+      <c r="F215" s="20">
+        <v>0.94999999999999996</v>
+      </c>
+      <c r="G215" s="20">
+        <v>0.96999999999999997</v>
+      </c>
+      <c r="H215" s="20"/>
+    </row>
+    <row r="216" ht="14.25">
+      <c r="C216" s="5"/>
+      <c r="D216" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E216" s="20">
+        <v>1</v>
+      </c>
+      <c r="F216" s="20">
+        <v>0.90000000000000002</v>
+      </c>
+      <c r="G216" s="20">
+        <v>0.94999999999999996</v>
+      </c>
+      <c r="H216" s="20"/>
+    </row>
+    <row r="217" ht="14.25">
+      <c r="C217" s="5"/>
+      <c r="D217" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E217" s="20">
+        <v>0.89000000000000001</v>
+      </c>
+      <c r="F217" s="20">
+        <v>0.84999999999999998</v>
+      </c>
+      <c r="G217" s="20">
+        <v>0.87</v>
+      </c>
+      <c r="H217" s="20"/>
+    </row>
+    <row r="218" ht="14.25">
+      <c r="C218" s="5"/>
+      <c r="D218" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E218" s="20">
+        <v>0.90000000000000002</v>
+      </c>
+      <c r="F218" s="20">
+        <v>0.94999999999999996</v>
+      </c>
+      <c r="G218" s="20">
+        <v>0.93000000000000005</v>
+      </c>
+      <c r="H218" s="20"/>
+    </row>
+    <row r="219" ht="14.25">
+      <c r="C219" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D219" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E219" s="20">
+        <v>0.78000000000000003</v>
+      </c>
+      <c r="F219" s="20">
+        <v>0.90000000000000002</v>
+      </c>
+      <c r="G219" s="20">
+        <v>0.83999999999999997</v>
+      </c>
+      <c r="H219" s="20">
+        <v>0.82999999999999996</v>
+      </c>
+    </row>
+    <row r="220" ht="14.25">
+      <c r="C220" s="5"/>
+      <c r="D220" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E220" s="20">
+        <v>0.90000000000000002</v>
+      </c>
+      <c r="F220" s="20">
+        <v>0.94999999999999996</v>
+      </c>
+      <c r="G220" s="20">
+        <v>0.93000000000000005</v>
+      </c>
+      <c r="H220" s="20"/>
+    </row>
+    <row r="221" ht="14.25">
+      <c r="C221" s="5"/>
+      <c r="D221" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E221" s="20">
+        <v>1</v>
+      </c>
+      <c r="F221" s="20">
+        <v>0.84999999999999998</v>
+      </c>
+      <c r="G221" s="20">
+        <v>0.92000000000000004</v>
+      </c>
+      <c r="H221" s="20"/>
+    </row>
+    <row r="222" ht="14.25">
+      <c r="C222" s="5"/>
+      <c r="D222" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E222" s="20">
+        <v>0.62</v>
+      </c>
+      <c r="F222" s="20">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="G222" s="20">
+        <v>0.69999999999999996</v>
+      </c>
+      <c r="H222" s="20"/>
+    </row>
+    <row r="223" ht="14.25">
+      <c r="C223" s="5"/>
+      <c r="D223" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E223" s="20">
+        <v>0.93999999999999995</v>
+      </c>
+      <c r="F223" s="20">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="G223" s="20">
+        <v>0.85999999999999999</v>
+      </c>
+      <c r="H223" s="20"/>
+    </row>
+    <row r="224" ht="14.25">
+      <c r="C224" s="5"/>
+      <c r="D224" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E224" s="20">
+        <v>0.83999999999999997</v>
+      </c>
+      <c r="F224" s="20">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="G224" s="20">
+        <v>0.81999999999999995</v>
+      </c>
+      <c r="H224" s="20"/>
+    </row>
+    <row r="225" ht="14.25">
+      <c r="C225" s="5"/>
+      <c r="D225" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E225" s="20">
+        <v>0.90000000000000002</v>
+      </c>
+      <c r="F225" s="20">
+        <v>0.94999999999999996</v>
+      </c>
+      <c r="G225" s="20">
+        <v>0.93000000000000005</v>
+      </c>
+      <c r="H225" s="20"/>
+    </row>
+    <row r="226" ht="14.25">
+      <c r="C226" s="5"/>
+      <c r="D226" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E226" s="20">
+        <v>0.93999999999999995</v>
+      </c>
+      <c r="F226" s="20">
+        <v>0.75</v>
+      </c>
+      <c r="G226" s="20">
+        <v>0.82999999999999996</v>
+      </c>
+      <c r="H226" s="20"/>
+    </row>
+    <row r="227" ht="14.25">
+      <c r="C227" s="5"/>
+      <c r="D227" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E227" s="20">
+        <v>0.85999999999999999</v>
+      </c>
+      <c r="F227" s="20">
+        <v>0.94999999999999996</v>
+      </c>
+      <c r="G227" s="20">
+        <v>0.90000000000000002</v>
+      </c>
+      <c r="H227" s="20"/>
+    </row>
+    <row r="228" ht="14.25">
+      <c r="C228" s="5"/>
+      <c r="D228" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E228" s="20">
+        <v>0.85999999999999999</v>
+      </c>
+      <c r="F228" s="20">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="G228" s="20">
+        <v>0.70999999999999996</v>
+      </c>
+      <c r="H228" s="20"/>
+    </row>
+    <row r="229" ht="14.25">
+      <c r="C229" s="5"/>
+      <c r="D229" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E229" s="20">
+        <v>0.94999999999999996</v>
+      </c>
+      <c r="F229" s="20">
+        <v>0.94999999999999996</v>
+      </c>
+      <c r="G229" s="20">
+        <v>0.94999999999999996</v>
+      </c>
+      <c r="H229" s="20"/>
+    </row>
+    <row r="230" ht="14.25">
+      <c r="C230" s="5"/>
+      <c r="D230" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E230" s="20">
+        <v>0.85999999999999999</v>
+      </c>
+      <c r="F230" s="20">
+        <v>0.94999999999999996</v>
+      </c>
+      <c r="G230" s="20">
+        <v>0.90000000000000002</v>
+      </c>
+      <c r="H230" s="20"/>
+    </row>
+    <row r="231" ht="14.25">
+      <c r="C231" s="5"/>
+      <c r="D231" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E231" s="20">
+        <v>0.82999999999999996</v>
+      </c>
+      <c r="F231" s="20">
+        <v>0.75</v>
+      </c>
+      <c r="G231" s="20">
+        <v>0.79000000000000004</v>
+      </c>
+      <c r="H231" s="20"/>
+    </row>
+    <row r="232" ht="14.25">
+      <c r="C232" s="5"/>
+      <c r="D232" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E232" s="20">
+        <v>0.70999999999999996</v>
+      </c>
+      <c r="F232" s="20">
+        <v>0.84999999999999998</v>
+      </c>
+      <c r="G232" s="20">
+        <v>0.77000000000000002</v>
+      </c>
+      <c r="H232" s="20"/>
+    </row>
+    <row r="233" ht="14.25">
+      <c r="C233" s="5"/>
+      <c r="D233" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E233" s="20">
+        <v>0.65000000000000002</v>
+      </c>
+      <c r="F233" s="20">
+        <v>0.65000000000000002</v>
+      </c>
+      <c r="G233" s="20">
+        <v>0.65000000000000002</v>
+      </c>
+      <c r="H233" s="20"/>
+    </row>
+    <row r="234" ht="14.25">
+      <c r="C234" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D234" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E234" s="20">
+        <v>0</v>
+      </c>
+      <c r="F234" s="20">
+        <v>0</v>
+      </c>
+      <c r="G234" s="20">
+        <v>0</v>
+      </c>
+      <c r="H234" s="20">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="235" ht="14.25">
+      <c r="C235" s="5"/>
+      <c r="D235" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E235" s="20">
+        <v>0.60999999999999999</v>
+      </c>
+      <c r="F235" s="20">
+        <v>0.94999999999999996</v>
+      </c>
+      <c r="G235" s="20">
+        <v>0.75</v>
+      </c>
+      <c r="H235" s="20"/>
+    </row>
+    <row r="236" ht="14.25">
+      <c r="C236" s="5"/>
+      <c r="D236" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E236" s="20">
+        <v>0.60999999999999999</v>
+      </c>
+      <c r="F236" s="20">
+        <v>0.69999999999999996</v>
+      </c>
+      <c r="G236" s="20">
+        <v>0.65000000000000002</v>
+      </c>
+      <c r="H236" s="20"/>
+    </row>
+    <row r="237" ht="14.25">
+      <c r="C237" s="5"/>
+      <c r="D237" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E237" s="20">
+        <v>0</v>
+      </c>
+      <c r="F237" s="20">
+        <v>0</v>
+      </c>
+      <c r="G237" s="20">
+        <v>0</v>
+      </c>
+      <c r="H237" s="20"/>
+    </row>
+    <row r="238" ht="14.25">
+      <c r="C238" s="5"/>
+      <c r="D238" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E238" s="20">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="F238" s="20">
+        <v>1</v>
+      </c>
+      <c r="G238" s="20">
+        <v>0.17999999999999999</v>
+      </c>
+      <c r="H238" s="20"/>
+    </row>
+    <row r="239" ht="14.25">
+      <c r="C239" s="5"/>
+      <c r="D239" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E239" s="20">
+        <v>0</v>
+      </c>
+      <c r="F239" s="20">
+        <v>0</v>
+      </c>
+      <c r="G239" s="20">
+        <v>0</v>
+      </c>
+      <c r="H239" s="20"/>
+    </row>
+    <row r="240" ht="14.25">
+      <c r="C240" s="5"/>
+      <c r="D240" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E240" s="20">
+        <v>1</v>
+      </c>
+      <c r="F240" s="20">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="G240" s="20">
+        <v>0.17999999999999999</v>
+      </c>
+      <c r="H240" s="20"/>
+    </row>
+    <row r="241" ht="14.25">
+      <c r="C241" s="5"/>
+      <c r="D241" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E241" s="20">
+        <v>0</v>
+      </c>
+      <c r="F241" s="20">
+        <v>0</v>
+      </c>
+      <c r="G241" s="20">
+        <v>0</v>
+      </c>
+      <c r="H241" s="20"/>
+    </row>
+    <row r="242" ht="14.25">
+      <c r="C242" s="5"/>
+      <c r="D242" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E242" s="20">
+        <v>0.89000000000000001</v>
+      </c>
+      <c r="F242" s="20">
+        <v>0.40000000000000002</v>
+      </c>
+      <c r="G242" s="20">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H242" s="20"/>
+    </row>
+    <row r="243" ht="14.25">
+      <c r="C243" s="5"/>
+      <c r="D243" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E243" s="20">
+        <v>0</v>
+      </c>
+      <c r="F243" s="20">
+        <v>0</v>
+      </c>
+      <c r="G243" s="20">
+        <v>0</v>
+      </c>
+      <c r="H243" s="20"/>
+    </row>
+    <row r="244" ht="14.25">
+      <c r="C244" s="5"/>
+      <c r="D244" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E244" s="20">
+        <v>0.91000000000000003</v>
+      </c>
+      <c r="F244" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="G244" s="20">
+        <v>0.65000000000000002</v>
+      </c>
+      <c r="H244" s="20"/>
+    </row>
+    <row r="245" ht="14.25">
+      <c r="C245" s="5"/>
+      <c r="D245" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E245" s="20">
+        <v>1</v>
+      </c>
+      <c r="F245" s="20">
+        <v>0.29999999999999999</v>
+      </c>
+      <c r="G245" s="20">
+        <v>0.46000000000000002</v>
+      </c>
+      <c r="H245" s="20"/>
+    </row>
+    <row r="246" ht="14.25">
+      <c r="C246" s="5"/>
+      <c r="D246" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E246" s="20">
+        <v>1</v>
+      </c>
+      <c r="F246" s="20">
+        <v>0.050000000000000003</v>
+      </c>
+      <c r="G246" s="20">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="H246" s="20"/>
+    </row>
+    <row r="247" ht="14.25">
+      <c r="C247" s="5"/>
+      <c r="D247" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E247" s="20">
+        <v>0</v>
+      </c>
+      <c r="F247" s="20">
+        <v>0</v>
+      </c>
+      <c r="G247" s="20">
+        <v>0</v>
+      </c>
+      <c r="H247" s="20"/>
+    </row>
+    <row r="248" ht="14.25">
+      <c r="C248" s="5"/>
+      <c r="D248" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E248" s="20">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F248" s="20">
+        <v>0.29999999999999999</v>
+      </c>
+      <c r="G248" s="20">
+        <v>0.39000000000000001</v>
+      </c>
+      <c r="H248" s="20"/>
+    </row>
+    <row r="249" ht="14.25">
+      <c r="C249" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D249" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E249" s="20">
+        <v>0.94999999999999996</v>
+      </c>
+      <c r="F249" s="20">
+        <v>1</v>
+      </c>
+      <c r="G249" s="20">
+        <v>0.97999999999999998</v>
+      </c>
+      <c r="H249" s="20">
+        <v>0.92000000000000004</v>
+      </c>
+    </row>
+    <row r="250" ht="14.25">
+      <c r="C250" s="5"/>
+      <c r="D250" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E250" s="20">
+        <v>0.91000000000000003</v>
+      </c>
+      <c r="F250" s="20">
+        <v>1</v>
+      </c>
+      <c r="G250" s="20">
+        <v>0.94999999999999996</v>
+      </c>
+      <c r="H250" s="20"/>
+    </row>
+    <row r="251" ht="14.25">
+      <c r="C251" s="5"/>
+      <c r="D251" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E251" s="20">
+        <v>1</v>
+      </c>
+      <c r="F251" s="20">
+        <v>0.84999999999999998</v>
+      </c>
+      <c r="G251" s="20">
+        <v>0.92000000000000004</v>
+      </c>
+      <c r="H251" s="20"/>
+    </row>
+    <row r="252" ht="14.25">
+      <c r="C252" s="5"/>
+      <c r="D252" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E252" s="20">
+        <v>0.76000000000000001</v>
+      </c>
+      <c r="F252" s="20">
+        <v>0.94999999999999996</v>
+      </c>
+      <c r="G252" s="20">
+        <v>0.83999999999999997</v>
+      </c>
+      <c r="H252" s="20"/>
+    </row>
+    <row r="253" ht="14.25">
+      <c r="C253" s="5"/>
+      <c r="D253" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E253" s="20">
+        <v>0.94999999999999996</v>
+      </c>
+      <c r="F253" s="20">
+        <v>0.90000000000000002</v>
+      </c>
+      <c r="G253" s="20">
+        <v>0.92000000000000004</v>
+      </c>
+      <c r="H253" s="20"/>
+    </row>
+    <row r="254" ht="14.25">
+      <c r="C254" s="5"/>
+      <c r="D254" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E254" s="20">
+        <v>0.94999999999999996</v>
+      </c>
+      <c r="F254" s="20">
+        <v>0.94999999999999996</v>
+      </c>
+      <c r="G254" s="20">
+        <v>0.94999999999999996</v>
+      </c>
+      <c r="H254" s="20"/>
+    </row>
+    <row r="255" ht="14.25">
+      <c r="C255" s="5"/>
+      <c r="D255" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E255" s="20">
+        <v>0.94999999999999996</v>
+      </c>
+      <c r="F255" s="20">
+        <v>0.90000000000000002</v>
+      </c>
+      <c r="G255" s="20">
+        <v>0.92000000000000004</v>
+      </c>
+      <c r="H255" s="20"/>
+    </row>
+    <row r="256" ht="14.25">
+      <c r="C256" s="5"/>
+      <c r="D256" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E256" s="20">
+        <v>1</v>
+      </c>
+      <c r="F256" s="20">
+        <v>0.90000000000000002</v>
+      </c>
+      <c r="G256" s="20">
+        <v>0.94999999999999996</v>
+      </c>
+      <c r="H256" s="20"/>
+    </row>
+    <row r="257" ht="14.25">
+      <c r="C257" s="5"/>
+      <c r="D257" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E257" s="20">
+        <v>0.91000000000000003</v>
+      </c>
+      <c r="F257" s="20">
+        <v>1</v>
+      </c>
+      <c r="G257" s="20">
+        <v>0.94999999999999996</v>
+      </c>
+      <c r="H257" s="20"/>
+    </row>
+    <row r="258" ht="14.25">
+      <c r="C258" s="5"/>
+      <c r="D258" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E258" s="20">
+        <v>1</v>
+      </c>
+      <c r="F258" s="20">
+        <v>0.65000000000000002</v>
+      </c>
+      <c r="G258" s="20">
+        <v>0.79000000000000004</v>
+      </c>
+      <c r="H258" s="20"/>
+    </row>
+    <row r="259" ht="14.25">
+      <c r="C259" s="5"/>
+      <c r="D259" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E259" s="20">
+        <v>0.94999999999999996</v>
+      </c>
+      <c r="F259" s="20">
+        <v>0.94999999999999996</v>
+      </c>
+      <c r="G259" s="20">
+        <v>0.94999999999999996</v>
+      </c>
+      <c r="H259" s="20"/>
+    </row>
+    <row r="260" ht="14.25">
+      <c r="C260" s="5"/>
+      <c r="D260" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E260" s="20">
+        <v>0.91000000000000003</v>
+      </c>
+      <c r="F260" s="20">
+        <v>1</v>
+      </c>
+      <c r="G260" s="20">
+        <v>0.94999999999999996</v>
+      </c>
+      <c r="H260" s="20"/>
+    </row>
+    <row r="261" ht="14.25">
+      <c r="C261" s="5"/>
+      <c r="D261" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E261" s="20">
+        <v>0.94999999999999996</v>
+      </c>
+      <c r="F261" s="20">
+        <v>1</v>
+      </c>
+      <c r="G261" s="20">
+        <v>0.97999999999999998</v>
+      </c>
+      <c r="H261" s="20"/>
+    </row>
+    <row r="262" ht="14.25">
+      <c r="C262" s="5"/>
+      <c r="D262" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E262" s="20">
+        <v>0.90000000000000002</v>
+      </c>
+      <c r="F262" s="20">
+        <v>0.90000000000000002</v>
+      </c>
+      <c r="G262" s="20">
+        <v>0.90000000000000002</v>
+      </c>
+      <c r="H262" s="20"/>
+    </row>
+    <row r="263" ht="14.25">
+      <c r="C263" s="5"/>
+      <c r="D263" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E263" s="20">
+        <v>0.81000000000000005</v>
+      </c>
+      <c r="F263" s="20">
+        <v>0.84999999999999998</v>
+      </c>
+      <c r="G263" s="20">
+        <v>0.82999999999999996</v>
+      </c>
+      <c r="H263" s="20"/>
+    </row>
+    <row r="267" ht="14.25">
+      <c r="C267" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D267" s="21"/>
+      <c r="E267" s="21"/>
+      <c r="F267" s="21"/>
+      <c r="G267" s="21"/>
+      <c r="H267" s="21"/>
+    </row>
+    <row r="268" ht="14.25">
+      <c r="C268" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D268" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E268" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F268" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G268" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H268" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="269" ht="14.25">
+      <c r="C269" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D269" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E269" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="F269" s="20">
+        <v>1</v>
+      </c>
+      <c r="G269" s="20">
+        <v>0.67000000000000004</v>
+      </c>
+      <c r="H269" s="23">
+        <v>0.69999999999999996</v>
+      </c>
+    </row>
+    <row r="270" ht="14.25">
+      <c r="C270" s="10"/>
+      <c r="D270" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E270" s="20">
+        <v>0.85999999999999999</v>
+      </c>
+      <c r="F270" s="20">
+        <v>1</v>
+      </c>
+      <c r="G270" s="20">
+        <v>0.92000000000000004</v>
+      </c>
+      <c r="H270" s="24"/>
+    </row>
+    <row r="271" ht="14.25">
+      <c r="C271" s="10"/>
+      <c r="D271" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E271" s="20">
+        <v>1</v>
+      </c>
+      <c r="F271" s="20">
+        <v>0.33000000000000002</v>
+      </c>
+      <c r="G271" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="H271" s="24"/>
+    </row>
+    <row r="272" ht="14.25">
+      <c r="C272" s="10"/>
+      <c r="D272" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E272" s="20">
+        <v>0.75</v>
+      </c>
+      <c r="F272" s="20">
+        <v>0.75</v>
+      </c>
+      <c r="G272" s="20">
+        <v>0.75</v>
+      </c>
+      <c r="H272" s="24"/>
+    </row>
+    <row r="273" ht="14.25">
+      <c r="C273" s="10"/>
+      <c r="D273" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E273" s="20">
+        <v>0.67000000000000004</v>
+      </c>
+      <c r="F273" s="20">
+        <v>1</v>
+      </c>
+      <c r="G273" s="20">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="H273" s="24"/>
+    </row>
+    <row r="274" ht="14.25">
+      <c r="C274" s="10"/>
+      <c r="D274" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E274" s="20">
+        <v>0</v>
+      </c>
+      <c r="F274" s="20">
+        <v>0</v>
+      </c>
+      <c r="G274" s="20">
+        <v>0</v>
+      </c>
+      <c r="H274" s="24"/>
+    </row>
+    <row r="275" ht="14.25">
+      <c r="C275" s="10"/>
+      <c r="D275" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E275" s="20">
+        <v>0.67000000000000004</v>
+      </c>
+      <c r="F275" s="20">
+        <v>0.40000000000000002</v>
+      </c>
+      <c r="G275" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="H275" s="24"/>
+    </row>
+    <row r="276" ht="14.25">
+      <c r="C276" s="10"/>
+      <c r="D276" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E276" s="20">
+        <v>1</v>
+      </c>
+      <c r="F276" s="20">
+        <v>0.75</v>
+      </c>
+      <c r="G276" s="20">
+        <v>0.85999999999999999</v>
+      </c>
+      <c r="H276" s="24"/>
+    </row>
+    <row r="277" ht="14.25">
+      <c r="C277" s="10"/>
+      <c r="D277" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E277" s="20">
+        <v>0.82999999999999996</v>
+      </c>
+      <c r="F277" s="20">
+        <v>1</v>
+      </c>
+      <c r="G277" s="20">
+        <v>0.91000000000000003</v>
+      </c>
+      <c r="H277" s="24"/>
+    </row>
+    <row r="278" ht="14.25">
+      <c r="C278" s="10"/>
+      <c r="D278" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E278" s="20">
+        <v>0.67000000000000004</v>
+      </c>
+      <c r="F278" s="20">
+        <v>0.67000000000000004</v>
+      </c>
+      <c r="G278" s="20">
+        <v>0.67000000000000004</v>
+      </c>
+      <c r="H278" s="24"/>
+    </row>
+    <row r="279" ht="14.25">
+      <c r="C279" s="10"/>
+      <c r="D279" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E279" s="20">
+        <v>0.33000000000000002</v>
+      </c>
+      <c r="F279" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="G279" s="20">
+        <v>0.40000000000000002</v>
+      </c>
+      <c r="H279" s="24"/>
+    </row>
+    <row r="280" ht="14.25">
+      <c r="C280" s="10"/>
+      <c r="D280" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E280" s="20">
+        <v>0.75</v>
+      </c>
+      <c r="F280" s="20">
+        <v>1</v>
+      </c>
+      <c r="G280" s="20">
+        <v>0.85999999999999999</v>
+      </c>
+      <c r="H280" s="24"/>
+    </row>
+    <row r="281" ht="14.25">
+      <c r="C281" s="10"/>
+      <c r="D281" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E281" s="20">
+        <v>0.40000000000000002</v>
+      </c>
+      <c r="F281" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="G281" s="20">
+        <v>0.44</v>
+      </c>
+      <c r="H281" s="24"/>
+    </row>
+    <row r="282" ht="14.25">
+      <c r="C282" s="10"/>
+      <c r="D282" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E282" s="20">
+        <v>0.67000000000000004</v>
+      </c>
+      <c r="F282" s="20">
+        <v>1</v>
+      </c>
+      <c r="G282" s="20">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="H282" s="24"/>
+    </row>
+    <row r="283" ht="14.25">
+      <c r="C283" s="10"/>
+      <c r="D283" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E283" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="F283" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="G283" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="H283" s="24"/>
+    </row>
+    <row r="284" ht="14.25">
+      <c r="C284" s="10"/>
+      <c r="D284" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E284" s="20">
+        <v>1</v>
+      </c>
+      <c r="F284" s="20">
+        <v>1</v>
+      </c>
+      <c r="G284" s="20">
+        <v>1</v>
+      </c>
+      <c r="H284" s="24"/>
+    </row>
+    <row r="285" ht="14.25">
+      <c r="C285" s="10"/>
+      <c r="D285" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E285" s="20">
+        <v>1</v>
+      </c>
+      <c r="F285" s="20">
+        <v>0.67000000000000004</v>
+      </c>
+      <c r="G285" s="20">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="H285" s="24"/>
+    </row>
+    <row r="286" ht="14.25">
+      <c r="C286" s="10"/>
+      <c r="D286" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E286" s="20">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="F286" s="20">
+        <v>0.75</v>
+      </c>
+      <c r="G286" s="20">
+        <v>0.67000000000000004</v>
+      </c>
+      <c r="H286" s="24"/>
+    </row>
+    <row r="287" ht="14.25">
+      <c r="C287" s="10"/>
+      <c r="D287" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E287" s="20">
+        <v>1</v>
+      </c>
+      <c r="F287" s="20">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="G287" s="20">
+        <v>0.89000000000000001</v>
+      </c>
+      <c r="H287" s="24"/>
+    </row>
+    <row r="288" ht="14.25">
+      <c r="C288" s="10"/>
+      <c r="D288" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E288" s="20">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="F288" s="20">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="G288" s="20">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="H288" s="24"/>
+    </row>
+    <row r="289" ht="14.25">
+      <c r="C289" s="10"/>
+      <c r="D289" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E289" s="20">
+        <v>1</v>
+      </c>
+      <c r="F289" s="20">
+        <v>0.67000000000000004</v>
+      </c>
+      <c r="G289" s="20">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="H289" s="24"/>
+    </row>
+    <row r="290" ht="14.25">
+      <c r="C290" s="10"/>
+      <c r="D290" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E290" s="20">
+        <v>0.67000000000000004</v>
+      </c>
+      <c r="F290" s="20">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="G290" s="20">
+        <v>0.72999999999999998</v>
+      </c>
+      <c r="H290" s="24"/>
+    </row>
+    <row r="291" ht="14.25">
+      <c r="C291" s="10"/>
+      <c r="D291" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="E212" s="20">
-        <v>1</v>
-      </c>
-      <c r="F212" s="20">
+      <c r="E291" s="20">
+        <v>1</v>
+      </c>
+      <c r="F291" s="20">
+        <v>0.67000000000000004</v>
+      </c>
+      <c r="G291" s="20">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="H291" s="24"/>
+    </row>
+    <row r="292" ht="14.25">
+      <c r="C292" s="10"/>
+      <c r="D292" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="E292" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="F292" s="20">
+        <v>1</v>
+      </c>
+      <c r="G292" s="20">
+        <v>0.67000000000000004</v>
+      </c>
+      <c r="H292" s="24"/>
+    </row>
+    <row r="293" ht="14.25">
+      <c r="C293" s="10"/>
+      <c r="D293" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E293" s="20">
+        <v>0.67000000000000004</v>
+      </c>
+      <c r="F293" s="20">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="G293" s="20">
+        <v>0.72999999999999998</v>
+      </c>
+      <c r="H293" s="24"/>
+    </row>
+    <row r="294" ht="14.25">
+      <c r="C294" s="12"/>
+      <c r="D294" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="E294" s="20">
+        <v>1</v>
+      </c>
+      <c r="F294" s="20">
+        <v>0.67000000000000004</v>
+      </c>
+      <c r="G294" s="20">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="H294" s="25"/>
+    </row>
+    <row r="295" ht="14.25">
+      <c r="C295" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D295" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E295" s="20">
+        <v>1</v>
+      </c>
+      <c r="F295" s="20">
+        <v>1</v>
+      </c>
+      <c r="G295" s="20">
+        <v>1</v>
+      </c>
+      <c r="H295" s="23">
+        <v>0.91000000000000003</v>
+      </c>
+    </row>
+    <row r="296" ht="14.25">
+      <c r="C296" s="10"/>
+      <c r="D296" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E296" s="20">
+        <v>0.85999999999999999</v>
+      </c>
+      <c r="F296" s="20">
+        <v>1</v>
+      </c>
+      <c r="G296" s="20">
+        <v>0.92000000000000004</v>
+      </c>
+      <c r="H296" s="24"/>
+    </row>
+    <row r="297" ht="14.25">
+      <c r="C297" s="10"/>
+      <c r="D297" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E297" s="20">
+        <v>1</v>
+      </c>
+      <c r="F297" s="20">
+        <v>1</v>
+      </c>
+      <c r="G297" s="20">
+        <v>1</v>
+      </c>
+      <c r="H297" s="24"/>
+    </row>
+    <row r="298" ht="14.25">
+      <c r="C298" s="10"/>
+      <c r="D298" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E298" s="20">
+        <v>1</v>
+      </c>
+      <c r="F298" s="20">
+        <v>0.75</v>
+      </c>
+      <c r="G298" s="20">
+        <v>0.85999999999999999</v>
+      </c>
+      <c r="H298" s="24"/>
+    </row>
+    <row r="299" ht="14.25">
+      <c r="C299" s="10"/>
+      <c r="D299" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E299" s="20">
+        <v>1</v>
+      </c>
+      <c r="F299" s="20">
+        <v>1</v>
+      </c>
+      <c r="G299" s="20">
+        <v>1</v>
+      </c>
+      <c r="H299" s="24"/>
+    </row>
+    <row r="300" ht="14.25">
+      <c r="C300" s="10"/>
+      <c r="D300" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E300" s="20">
+        <v>1</v>
+      </c>
+      <c r="F300" s="20">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="G300" s="20">
+        <v>0.75</v>
+      </c>
+      <c r="H300" s="24"/>
+    </row>
+    <row r="301" ht="14.25">
+      <c r="C301" s="10"/>
+      <c r="D301" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E301" s="20">
+        <v>1</v>
+      </c>
+      <c r="F301" s="20">
+        <v>1</v>
+      </c>
+      <c r="G301" s="20">
+        <v>1</v>
+      </c>
+      <c r="H301" s="24"/>
+    </row>
+    <row r="302" ht="14.25">
+      <c r="C302" s="10"/>
+      <c r="D302" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E302" s="20">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F302" s="20">
+        <v>1</v>
+      </c>
+      <c r="G302" s="20">
+        <v>0.72999999999999998</v>
+      </c>
+      <c r="H302" s="24"/>
+    </row>
+    <row r="303" ht="14.25">
+      <c r="C303" s="10"/>
+      <c r="D303" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E303" s="20">
         <v>0.82999999999999996</v>
       </c>
-      <c r="G212" s="20">
+      <c r="F303" s="20">
+        <v>1</v>
+      </c>
+      <c r="G303" s="20">
         <v>0.91000000000000003</v>
       </c>
-      <c r="H212" s="20"/>
+      <c r="H303" s="24"/>
+    </row>
+    <row r="304" ht="14.25">
+      <c r="C304" s="10"/>
+      <c r="D304" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E304" s="20">
+        <v>1</v>
+      </c>
+      <c r="F304" s="20">
+        <v>1</v>
+      </c>
+      <c r="G304" s="20">
+        <v>1</v>
+      </c>
+      <c r="H304" s="24"/>
+    </row>
+    <row r="305" ht="14.25">
+      <c r="C305" s="10"/>
+      <c r="D305" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E305" s="20">
+        <v>1</v>
+      </c>
+      <c r="F305" s="20">
+        <v>1</v>
+      </c>
+      <c r="G305" s="20">
+        <v>1</v>
+      </c>
+      <c r="H305" s="24"/>
+    </row>
+    <row r="306" ht="14.25">
+      <c r="C306" s="10"/>
+      <c r="D306" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E306" s="20">
+        <v>1</v>
+      </c>
+      <c r="F306" s="20">
+        <v>0.67000000000000004</v>
+      </c>
+      <c r="G306" s="20">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="H306" s="24"/>
+    </row>
+    <row r="307" ht="14.25">
+      <c r="C307" s="10"/>
+      <c r="D307" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E307" s="20">
+        <v>1</v>
+      </c>
+      <c r="F307" s="20">
+        <v>1</v>
+      </c>
+      <c r="G307" s="20">
+        <v>1</v>
+      </c>
+      <c r="H307" s="24"/>
+    </row>
+    <row r="308" ht="14.25">
+      <c r="C308" s="10"/>
+      <c r="D308" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E308" s="20">
+        <v>1</v>
+      </c>
+      <c r="F308" s="20">
+        <v>1</v>
+      </c>
+      <c r="G308" s="20">
+        <v>1</v>
+      </c>
+      <c r="H308" s="24"/>
+    </row>
+    <row r="309" ht="14.25">
+      <c r="C309" s="10"/>
+      <c r="D309" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E309" s="20">
+        <v>1</v>
+      </c>
+      <c r="F309" s="20">
+        <v>1</v>
+      </c>
+      <c r="G309" s="20">
+        <v>1</v>
+      </c>
+      <c r="H309" s="24"/>
+    </row>
+    <row r="310" ht="14.25">
+      <c r="C310" s="10"/>
+      <c r="D310" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E310" s="20">
+        <v>1</v>
+      </c>
+      <c r="F310" s="20">
+        <v>1</v>
+      </c>
+      <c r="G310" s="20">
+        <v>1</v>
+      </c>
+      <c r="H310" s="24"/>
+    </row>
+    <row r="311" ht="14.25">
+      <c r="C311" s="10"/>
+      <c r="D311" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E311" s="20">
+        <v>1</v>
+      </c>
+      <c r="F311" s="20">
+        <v>1</v>
+      </c>
+      <c r="G311" s="20">
+        <v>1</v>
+      </c>
+      <c r="H311" s="24"/>
+    </row>
+    <row r="312" ht="14.25">
+      <c r="C312" s="10"/>
+      <c r="D312" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E312" s="20">
+        <v>1</v>
+      </c>
+      <c r="F312" s="20">
+        <v>0.75</v>
+      </c>
+      <c r="G312" s="20">
+        <v>0.85999999999999999</v>
+      </c>
+      <c r="H312" s="24"/>
+    </row>
+    <row r="313" ht="14.25">
+      <c r="C313" s="10"/>
+      <c r="D313" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E313" s="20">
+        <v>1</v>
+      </c>
+      <c r="F313" s="20">
+        <v>1</v>
+      </c>
+      <c r="G313" s="20">
+        <v>1</v>
+      </c>
+      <c r="H313" s="24"/>
+    </row>
+    <row r="314" ht="14.25">
+      <c r="C314" s="10"/>
+      <c r="D314" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E314" s="20">
+        <v>1</v>
+      </c>
+      <c r="F314" s="20">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="G314" s="20">
+        <v>0.89000000000000001</v>
+      </c>
+      <c r="H314" s="24"/>
+    </row>
+    <row r="315" ht="14.25">
+      <c r="C315" s="10"/>
+      <c r="D315" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E315" s="20">
+        <v>0.67000000000000004</v>
+      </c>
+      <c r="F315" s="20">
+        <v>0.67000000000000004</v>
+      </c>
+      <c r="G315" s="20">
+        <v>0.67000000000000004</v>
+      </c>
+      <c r="H315" s="24"/>
+    </row>
+    <row r="316" ht="14.25">
+      <c r="C316" s="10"/>
+      <c r="D316" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E316" s="20">
+        <v>1</v>
+      </c>
+      <c r="F316" s="20">
+        <v>1</v>
+      </c>
+      <c r="G316" s="20">
+        <v>1</v>
+      </c>
+      <c r="H316" s="24"/>
+    </row>
+    <row r="317" ht="14.25">
+      <c r="C317" s="10"/>
+      <c r="D317" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E317" s="20">
+        <v>1</v>
+      </c>
+      <c r="F317" s="20">
+        <v>0.67000000000000004</v>
+      </c>
+      <c r="G317" s="20">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="H317" s="24"/>
+    </row>
+    <row r="318" ht="14.25">
+      <c r="C318" s="10"/>
+      <c r="D318" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="E318" s="20">
+        <v>0</v>
+      </c>
+      <c r="F318" s="20">
+        <v>0</v>
+      </c>
+      <c r="G318" s="20">
+        <v>0</v>
+      </c>
+      <c r="H318" s="24"/>
+    </row>
+    <row r="319" ht="14.25">
+      <c r="C319" s="10"/>
+      <c r="D319" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E319" s="20">
+        <v>0.70999999999999996</v>
+      </c>
+      <c r="F319" s="20">
+        <v>1</v>
+      </c>
+      <c r="G319" s="20">
+        <v>0.82999999999999996</v>
+      </c>
+      <c r="H319" s="24"/>
+    </row>
+    <row r="320" ht="14.25">
+      <c r="C320" s="12"/>
+      <c r="D320" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="E320" s="20">
+        <v>1</v>
+      </c>
+      <c r="F320" s="20">
+        <v>1</v>
+      </c>
+      <c r="G320" s="20">
+        <v>1</v>
+      </c>
+      <c r="H320" s="25"/>
+    </row>
+    <row r="321" ht="14.25">
+      <c r="C321" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D321" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E321" s="20">
+        <v>0</v>
+      </c>
+      <c r="F321" s="20">
+        <v>0</v>
+      </c>
+      <c r="G321" s="20">
+        <v>0</v>
+      </c>
+      <c r="H321" s="23">
+        <v>0.20000000000000001</v>
+      </c>
+    </row>
+    <row r="322" ht="14.25">
+      <c r="C322" s="10"/>
+      <c r="D322" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E322" s="20">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="F322" s="20">
+        <v>0.67000000000000004</v>
+      </c>
+      <c r="G322" s="20">
+        <v>0.72999999999999998</v>
+      </c>
+      <c r="H322" s="24"/>
+    </row>
+    <row r="323" ht="14.25">
+      <c r="C323" s="10"/>
+      <c r="D323" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E323" s="20">
+        <v>1</v>
+      </c>
+      <c r="F323" s="20">
+        <v>0.33000000000000002</v>
+      </c>
+      <c r="G323" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="H323" s="24"/>
+    </row>
+    <row r="324" ht="14.25">
+      <c r="C324" s="10"/>
+      <c r="D324" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E324" s="20">
+        <v>1</v>
+      </c>
+      <c r="F324" s="20">
+        <v>0.25</v>
+      </c>
+      <c r="G324" s="20">
+        <v>0.40000000000000002</v>
+      </c>
+      <c r="H324" s="24"/>
+    </row>
+    <row r="325" ht="14.25">
+      <c r="C325" s="10"/>
+      <c r="D325" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E325" s="20">
+        <v>0</v>
+      </c>
+      <c r="F325" s="20">
+        <v>0</v>
+      </c>
+      <c r="G325" s="20">
+        <v>0</v>
+      </c>
+      <c r="H325" s="24"/>
+    </row>
+    <row r="326" ht="14.25">
+      <c r="C326" s="10"/>
+      <c r="D326" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E326" s="20">
+        <v>0.089999999999999997</v>
+      </c>
+      <c r="F326" s="20">
+        <v>1</v>
+      </c>
+      <c r="G326" s="20">
+        <v>0.17000000000000001</v>
+      </c>
+      <c r="H326" s="24"/>
+    </row>
+    <row r="327" ht="14.25">
+      <c r="C327" s="10"/>
+      <c r="D327" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E327" s="20">
+        <v>0.20999999999999999</v>
+      </c>
+      <c r="F327" s="20">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="G327" s="20">
+        <v>0.33000000000000002</v>
+      </c>
+      <c r="H327" s="24"/>
+    </row>
+    <row r="328" ht="14.25">
+      <c r="C328" s="10"/>
+      <c r="D328" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E328" s="20">
+        <v>0</v>
+      </c>
+      <c r="F328" s="20">
+        <v>0</v>
+      </c>
+      <c r="G328" s="20">
+        <v>0</v>
+      </c>
+      <c r="H328" s="24"/>
+    </row>
+    <row r="329" ht="14.25">
+      <c r="C329" s="10"/>
+      <c r="D329" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E329" s="20">
+        <v>0</v>
+      </c>
+      <c r="F329" s="20">
+        <v>0</v>
+      </c>
+      <c r="G329" s="20">
+        <v>0</v>
+      </c>
+      <c r="H329" s="24"/>
+    </row>
+    <row r="330" ht="14.25">
+      <c r="C330" s="10"/>
+      <c r="D330" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E330" s="20">
+        <v>1</v>
+      </c>
+      <c r="F330" s="20">
+        <v>0.33000000000000002</v>
+      </c>
+      <c r="G330" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="H330" s="24"/>
+    </row>
+    <row r="331" ht="14.25">
+      <c r="C331" s="10"/>
+      <c r="D331" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E331" s="20">
+        <v>0</v>
+      </c>
+      <c r="F331" s="20">
+        <v>0</v>
+      </c>
+      <c r="G331" s="20">
+        <v>0</v>
+      </c>
+      <c r="H331" s="24"/>
+    </row>
+    <row r="332" ht="14.25">
+      <c r="C332" s="10"/>
+      <c r="D332" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E332" s="20">
+        <v>0</v>
+      </c>
+      <c r="F332" s="20">
+        <v>0</v>
+      </c>
+      <c r="G332" s="20">
+        <v>0</v>
+      </c>
+      <c r="H332" s="24"/>
+    </row>
+    <row r="333" ht="14.25">
+      <c r="C333" s="10"/>
+      <c r="D333" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E333" s="20">
+        <v>0</v>
+      </c>
+      <c r="F333" s="20">
+        <v>0</v>
+      </c>
+      <c r="G333" s="20">
+        <v>0</v>
+      </c>
+      <c r="H333" s="24"/>
+    </row>
+    <row r="334" ht="14.25">
+      <c r="C334" s="10"/>
+      <c r="D334" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E334" s="20">
+        <v>0</v>
+      </c>
+      <c r="F334" s="20">
+        <v>0</v>
+      </c>
+      <c r="G334" s="20">
+        <v>0</v>
+      </c>
+      <c r="H334" s="24"/>
+    </row>
+    <row r="335" ht="14.25">
+      <c r="C335" s="10"/>
+      <c r="D335" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E335" s="20">
+        <v>0</v>
+      </c>
+      <c r="F335" s="20">
+        <v>0</v>
+      </c>
+      <c r="G335" s="20">
+        <v>0</v>
+      </c>
+      <c r="H335" s="24"/>
+    </row>
+    <row r="336" ht="14.25">
+      <c r="C336" s="10"/>
+      <c r="D336" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E336" s="20">
+        <v>0</v>
+      </c>
+      <c r="F336" s="20">
+        <v>0</v>
+      </c>
+      <c r="G336" s="20">
+        <v>0</v>
+      </c>
+      <c r="H336" s="24"/>
+    </row>
+    <row r="337" ht="14.25">
+      <c r="C337" s="10"/>
+      <c r="D337" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E337" s="20">
+        <v>1</v>
+      </c>
+      <c r="F337" s="20">
+        <v>0.33000000000000002</v>
+      </c>
+      <c r="G337" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="H337" s="24"/>
+    </row>
+    <row r="338" ht="14.25">
+      <c r="C338" s="10"/>
+      <c r="D338" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E338" s="20">
+        <v>0</v>
+      </c>
+      <c r="F338" s="20">
+        <v>0</v>
+      </c>
+      <c r="G338" s="20">
+        <v>0</v>
+      </c>
+      <c r="H338" s="24"/>
+    </row>
+    <row r="339" ht="14.25">
+      <c r="C339" s="10"/>
+      <c r="D339" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E339" s="20">
+        <v>0</v>
+      </c>
+      <c r="F339" s="20">
+        <v>0</v>
+      </c>
+      <c r="G339" s="20">
+        <v>0</v>
+      </c>
+      <c r="H339" s="24"/>
+    </row>
+    <row r="340" ht="14.25">
+      <c r="C340" s="10"/>
+      <c r="D340" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E340" s="20">
+        <v>0</v>
+      </c>
+      <c r="F340" s="20">
+        <v>0</v>
+      </c>
+      <c r="G340" s="20">
+        <v>0</v>
+      </c>
+      <c r="H340" s="24"/>
+    </row>
+    <row r="341" ht="14.25">
+      <c r="C341" s="10"/>
+      <c r="D341" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E341" s="20">
+        <v>0</v>
+      </c>
+      <c r="F341" s="20">
+        <v>0</v>
+      </c>
+      <c r="G341" s="20">
+        <v>0</v>
+      </c>
+      <c r="H341" s="24"/>
+    </row>
+    <row r="342" ht="14.25">
+      <c r="C342" s="10"/>
+      <c r="D342" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E342" s="20">
+        <v>0</v>
+      </c>
+      <c r="F342" s="20">
+        <v>0</v>
+      </c>
+      <c r="G342" s="20">
+        <v>0</v>
+      </c>
+      <c r="H342" s="24"/>
+    </row>
+    <row r="343" ht="14.25">
+      <c r="C343" s="10"/>
+      <c r="D343" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E343" s="20">
+        <v>1</v>
+      </c>
+      <c r="F343" s="20">
+        <v>0.33000000000000002</v>
+      </c>
+      <c r="G343" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="H343" s="24"/>
+    </row>
+    <row r="344" ht="14.25">
+      <c r="C344" s="10"/>
+      <c r="D344" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="E344" s="20">
+        <v>0.070000000000000007</v>
+      </c>
+      <c r="F344" s="20">
+        <v>1</v>
+      </c>
+      <c r="G344" s="20">
+        <v>0.13</v>
+      </c>
+      <c r="H344" s="24"/>
+    </row>
+    <row r="345" ht="14.25">
+      <c r="C345" s="10"/>
+      <c r="D345" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E345" s="20">
+        <v>0</v>
+      </c>
+      <c r="F345" s="20">
+        <v>0</v>
+      </c>
+      <c r="G345" s="20">
+        <v>0</v>
+      </c>
+      <c r="H345" s="24"/>
+    </row>
+    <row r="346" ht="14.25">
+      <c r="C346" s="12"/>
+      <c r="D346" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="E346" s="20">
+        <v>0</v>
+      </c>
+      <c r="F346" s="20">
+        <v>0</v>
+      </c>
+      <c r="G346" s="20">
+        <v>0</v>
+      </c>
+      <c r="H346" s="25"/>
+    </row>
+    <row r="347" ht="14.25">
+      <c r="C347" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D347" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E347" s="20">
+        <v>1</v>
+      </c>
+      <c r="F347" s="20">
+        <v>1</v>
+      </c>
+      <c r="G347" s="20">
+        <v>1</v>
+      </c>
+      <c r="H347" s="23">
+        <v>0.93000000000000005</v>
+      </c>
+    </row>
+    <row r="348" ht="14.25">
+      <c r="C348" s="10"/>
+      <c r="D348" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E348" s="20">
+        <v>1</v>
+      </c>
+      <c r="F348" s="20">
+        <v>0.67000000000000004</v>
+      </c>
+      <c r="G348" s="20">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="H348" s="24"/>
+    </row>
+    <row r="349" ht="14.25">
+      <c r="C349" s="10"/>
+      <c r="D349" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E349" s="20">
+        <v>1</v>
+      </c>
+      <c r="F349" s="20">
+        <v>1</v>
+      </c>
+      <c r="G349" s="20">
+        <v>1</v>
+      </c>
+      <c r="H349" s="24"/>
+    </row>
+    <row r="350" ht="14.25">
+      <c r="C350" s="10"/>
+      <c r="D350" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E350" s="20">
+        <v>1</v>
+      </c>
+      <c r="F350" s="20">
+        <v>0.75</v>
+      </c>
+      <c r="G350" s="20">
+        <v>0.85999999999999999</v>
+      </c>
+      <c r="H350" s="24"/>
+    </row>
+    <row r="351" ht="14.25">
+      <c r="C351" s="10"/>
+      <c r="D351" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E351" s="20">
+        <v>1</v>
+      </c>
+      <c r="F351" s="20">
+        <v>1</v>
+      </c>
+      <c r="G351" s="20">
+        <v>1</v>
+      </c>
+      <c r="H351" s="24"/>
+    </row>
+    <row r="352" ht="14.25">
+      <c r="C352" s="10"/>
+      <c r="D352" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E352" s="20">
+        <v>0.70999999999999996</v>
+      </c>
+      <c r="F352" s="20">
+        <v>1</v>
+      </c>
+      <c r="G352" s="20">
+        <v>0.82999999999999996</v>
+      </c>
+      <c r="H352" s="24"/>
+    </row>
+    <row r="353" ht="14.25">
+      <c r="C353" s="10"/>
+      <c r="D353" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E353" s="20">
+        <v>1</v>
+      </c>
+      <c r="F353" s="20">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="G353" s="20">
+        <v>0.89000000000000001</v>
+      </c>
+      <c r="H353" s="24"/>
+    </row>
+    <row r="354" ht="14.25">
+      <c r="C354" s="10"/>
+      <c r="D354" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E354" s="20">
+        <v>1</v>
+      </c>
+      <c r="F354" s="20">
+        <v>1</v>
+      </c>
+      <c r="G354" s="20">
+        <v>1</v>
+      </c>
+      <c r="H354" s="24"/>
+    </row>
+    <row r="355" ht="14.25">
+      <c r="C355" s="10"/>
+      <c r="D355" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E355" s="20">
+        <v>1</v>
+      </c>
+      <c r="F355" s="20">
+        <v>1</v>
+      </c>
+      <c r="G355" s="20">
+        <v>1</v>
+      </c>
+      <c r="H355" s="24"/>
+    </row>
+    <row r="356" ht="14.25">
+      <c r="C356" s="10"/>
+      <c r="D356" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E356" s="20">
+        <v>1</v>
+      </c>
+      <c r="F356" s="20">
+        <v>1</v>
+      </c>
+      <c r="G356" s="20">
+        <v>1</v>
+      </c>
+      <c r="H356" s="24"/>
+    </row>
+    <row r="357" ht="14.25">
+      <c r="C357" s="10"/>
+      <c r="D357" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E357" s="20">
+        <v>1</v>
+      </c>
+      <c r="F357" s="20">
+        <v>1</v>
+      </c>
+      <c r="G357" s="20">
+        <v>1</v>
+      </c>
+      <c r="H357" s="24"/>
+    </row>
+    <row r="358" ht="14.25">
+      <c r="C358" s="10"/>
+      <c r="D358" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E358" s="20">
+        <v>0.75</v>
+      </c>
+      <c r="F358" s="20">
+        <v>1</v>
+      </c>
+      <c r="G358" s="20">
+        <v>0.85999999999999999</v>
+      </c>
+      <c r="H358" s="24"/>
+    </row>
+    <row r="359" ht="14.25">
+      <c r="C359" s="10"/>
+      <c r="D359" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E359" s="20">
+        <v>1</v>
+      </c>
+      <c r="F359" s="20">
+        <v>1</v>
+      </c>
+      <c r="G359" s="20">
+        <v>1</v>
+      </c>
+      <c r="H359" s="24"/>
+    </row>
+    <row r="360" ht="14.25">
+      <c r="C360" s="10"/>
+      <c r="D360" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E360" s="20">
+        <v>1</v>
+      </c>
+      <c r="F360" s="20">
+        <v>1</v>
+      </c>
+      <c r="G360" s="20">
+        <v>1</v>
+      </c>
+      <c r="H360" s="24"/>
+    </row>
+    <row r="361" ht="14.25">
+      <c r="C361" s="10"/>
+      <c r="D361" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E361" s="20">
+        <v>1</v>
+      </c>
+      <c r="F361" s="20">
+        <v>1</v>
+      </c>
+      <c r="G361" s="20">
+        <v>1</v>
+      </c>
+      <c r="H361" s="24"/>
+    </row>
+    <row r="362" ht="14.25">
+      <c r="C362" s="10"/>
+      <c r="D362" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E362" s="20">
+        <v>1</v>
+      </c>
+      <c r="F362" s="20">
+        <v>1</v>
+      </c>
+      <c r="G362" s="20">
+        <v>1</v>
+      </c>
+      <c r="H362" s="24"/>
+    </row>
+    <row r="363" ht="14.25">
+      <c r="C363" s="10"/>
+      <c r="D363" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E363" s="20">
+        <v>1</v>
+      </c>
+      <c r="F363" s="20">
+        <v>1</v>
+      </c>
+      <c r="G363" s="20">
+        <v>1</v>
+      </c>
+      <c r="H363" s="24"/>
+    </row>
+    <row r="364" ht="14.25">
+      <c r="C364" s="10"/>
+      <c r="D364" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E364" s="20">
+        <v>1</v>
+      </c>
+      <c r="F364" s="20">
+        <v>1</v>
+      </c>
+      <c r="G364" s="20">
+        <v>1</v>
+      </c>
+      <c r="H364" s="24"/>
+    </row>
+    <row r="365" ht="14.25">
+      <c r="C365" s="10"/>
+      <c r="D365" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E365" s="20">
+        <v>0.70999999999999996</v>
+      </c>
+      <c r="F365" s="20">
+        <v>1</v>
+      </c>
+      <c r="G365" s="20">
+        <v>0.82999999999999996</v>
+      </c>
+      <c r="H365" s="24"/>
+    </row>
+    <row r="366" ht="14.25">
+      <c r="C366" s="10"/>
+      <c r="D366" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E366" s="20">
+        <v>1</v>
+      </c>
+      <c r="F366" s="20">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="G366" s="20">
+        <v>0.89000000000000001</v>
+      </c>
+      <c r="H366" s="24"/>
+    </row>
+    <row r="367" ht="14.25">
+      <c r="C367" s="10"/>
+      <c r="D367" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E367" s="20">
+        <v>1</v>
+      </c>
+      <c r="F367" s="20">
+        <v>1</v>
+      </c>
+      <c r="G367" s="20">
+        <v>1</v>
+      </c>
+      <c r="H367" s="24"/>
+    </row>
+    <row r="368" ht="14.25">
+      <c r="C368" s="10"/>
+      <c r="D368" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E368" s="20">
+        <v>1</v>
+      </c>
+      <c r="F368" s="20">
+        <v>1</v>
+      </c>
+      <c r="G368" s="20">
+        <v>1</v>
+      </c>
+      <c r="H368" s="24"/>
+    </row>
+    <row r="369" ht="14.25">
+      <c r="C369" s="10"/>
+      <c r="D369" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E369" s="20">
+        <v>1</v>
+      </c>
+      <c r="F369" s="20">
+        <v>0.67000000000000004</v>
+      </c>
+      <c r="G369" s="20">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="H369" s="24"/>
+    </row>
+    <row r="370" ht="14.25">
+      <c r="C370" s="10"/>
+      <c r="D370" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="E370" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="F370" s="20">
+        <v>1</v>
+      </c>
+      <c r="G370" s="20">
+        <v>0.67000000000000004</v>
+      </c>
+      <c r="H370" s="24"/>
+    </row>
+    <row r="371" ht="14.25">
+      <c r="C371" s="10"/>
+      <c r="D371" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E371" s="20">
+        <v>0.82999999999999996</v>
+      </c>
+      <c r="F371" s="20">
+        <v>1</v>
+      </c>
+      <c r="G371" s="20">
+        <v>0.91000000000000003</v>
+      </c>
+      <c r="H371" s="24"/>
+    </row>
+    <row r="372" ht="14.25">
+      <c r="C372" s="12"/>
+      <c r="D372" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="E372" s="20">
+        <v>1</v>
+      </c>
+      <c r="F372" s="20">
+        <v>0.82999999999999996</v>
+      </c>
+      <c r="G372" s="20">
+        <v>0.91000000000000003</v>
+      </c>
+      <c r="H372" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="61">
+  <mergeCells count="87">
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="H6:H7"/>
@@ -9436,14 +11973,40 @@
     <mergeCell ref="C100:C104"/>
     <mergeCell ref="H100:H104"/>
     <mergeCell ref="C107:H107"/>
-    <mergeCell ref="C109:C134"/>
-    <mergeCell ref="H109:H134"/>
-    <mergeCell ref="C135:C160"/>
-    <mergeCell ref="H135:H160"/>
-    <mergeCell ref="C161:C186"/>
-    <mergeCell ref="H161:H186"/>
-    <mergeCell ref="C187:C212"/>
-    <mergeCell ref="H187:H212"/>
+    <mergeCell ref="C110:C119"/>
+    <mergeCell ref="H110:H119"/>
+    <mergeCell ref="C120:C129"/>
+    <mergeCell ref="H120:H129"/>
+    <mergeCell ref="C130:C139"/>
+    <mergeCell ref="H130:H139"/>
+    <mergeCell ref="C140:C149"/>
+    <mergeCell ref="H140:H149"/>
+    <mergeCell ref="C150:C159"/>
+    <mergeCell ref="H150:H159"/>
+    <mergeCell ref="C160:C169"/>
+    <mergeCell ref="H160:H169"/>
+    <mergeCell ref="C172:H172"/>
+    <mergeCell ref="C174:C188"/>
+    <mergeCell ref="H174:H188"/>
+    <mergeCell ref="C189:C203"/>
+    <mergeCell ref="H189:H203"/>
+    <mergeCell ref="C204:C218"/>
+    <mergeCell ref="H204:H218"/>
+    <mergeCell ref="C219:C233"/>
+    <mergeCell ref="H219:H233"/>
+    <mergeCell ref="C234:C248"/>
+    <mergeCell ref="H234:H248"/>
+    <mergeCell ref="C249:C263"/>
+    <mergeCell ref="H249:H263"/>
+    <mergeCell ref="C267:H267"/>
+    <mergeCell ref="C269:C294"/>
+    <mergeCell ref="H269:H294"/>
+    <mergeCell ref="C295:C320"/>
+    <mergeCell ref="H295:H320"/>
+    <mergeCell ref="C321:C346"/>
+    <mergeCell ref="H321:H346"/>
+    <mergeCell ref="C347:C372"/>
+    <mergeCell ref="H347:H372"/>
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
@@ -9466,7 +12029,7 @@
   <sheetData>
     <row r="2" ht="14.25">
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -10096,7 +12659,7 @@
     </row>
     <row r="43" ht="14.25">
       <c r="B43" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -10726,7 +13289,7 @@
     </row>
     <row r="85" ht="14.25">
       <c r="B85" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
